--- a/src/attributions/attributions_saliency_traj_343.xlsx
+++ b/src/attributions/attributions_saliency_traj_343.xlsx
@@ -1573,1140 +1573,1140 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1435465216636658</v>
+        <v>0.03280035406351089</v>
       </c>
       <c r="B3" t="n">
-        <v>0.005362091585993767</v>
+        <v>0.2579551935195923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3077276349067688</v>
+        <v>0.005899995565414429</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1114105731248856</v>
+        <v>0.1839301586151123</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2851519584655762</v>
+        <v>0.01305210031569004</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07288749516010284</v>
+        <v>0.02441832982003689</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08781991899013519</v>
+        <v>0.03228306770324707</v>
       </c>
       <c r="H3" t="n">
-        <v>0.006161103025078773</v>
+        <v>0.02011296153068542</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06633654236793518</v>
+        <v>0.06334835290908813</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1427893787622452</v>
+        <v>0.05423479899764061</v>
       </c>
       <c r="K3" t="n">
-        <v>0.007550467271357775</v>
+        <v>0.225669264793396</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3016939163208008</v>
+        <v>0.006589337252080441</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07083165645599365</v>
+        <v>0.179572731256485</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1756840199232101</v>
+        <v>0.06361669301986694</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04119467362761497</v>
+        <v>0.02210242487490177</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02385073713958263</v>
+        <v>0.01776811480522156</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1051075085997581</v>
+        <v>0.03615542501211166</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08787024021148682</v>
+        <v>0.04996722191572189</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01875489763915539</v>
+        <v>0.01021808944642544</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04707004129886627</v>
+        <v>0.02916213870048523</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02144932746887207</v>
+        <v>0.01737632602453232</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03420290723443031</v>
+        <v>0.0003280132077634335</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0415792241692543</v>
+        <v>0.03466355055570602</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01546453777700663</v>
+        <v>0.01505761500447989</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.04325893893837929</v>
+        <v>0.03887719660997391</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.02957565151154995</v>
+        <v>0.02643635123968124</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.001597296446561813</v>
+        <v>0.02174124866724014</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01060416270047426</v>
+        <v>0.05664186552166939</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.008686546236276627</v>
+        <v>0.02757135406136513</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.02546543627977371</v>
+        <v>0.001785983331501484</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.04308471828699112</v>
+        <v>0.0324469730257988</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.08805350959300995</v>
+        <v>0.03627132624387741</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.02137630060315132</v>
+        <v>0.0443720817565918</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0286435429006815</v>
+        <v>0.01468455232679844</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.02285592257976532</v>
+        <v>0.03465851023793221</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.05589489638805389</v>
+        <v>0.006576564162969589</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.03404729068279266</v>
+        <v>0.01028707157820463</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.05920103564858437</v>
+        <v>0.009806257672607899</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.06578784435987473</v>
+        <v>0.004778685048222542</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.05361516401171684</v>
+        <v>0.006557697895914316</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.01081346813589334</v>
+        <v>0.01552107371389866</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.005737018771469593</v>
+        <v>0.005690316669642925</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.01392715983092785</v>
+        <v>0.01883725449442863</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.05575062334537506</v>
+        <v>0.009580818936228752</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.009354714304208755</v>
+        <v>0.006947836373001337</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1017983704805374</v>
+        <v>0.05462890118360519</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.1440306007862091</v>
+        <v>0.148397296667099</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1659184247255325</v>
+        <v>0.0429425910115242</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.01981236040592194</v>
+        <v>0.04259981215000153</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.0222729817032814</v>
+        <v>0.005313192028552294</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.06490744650363922</v>
+        <v>0.03017324954271317</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.07791264355182648</v>
+        <v>0.0002703315112739801</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.02791450917720795</v>
+        <v>0.03301824629306793</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.05823930725455284</v>
+        <v>0.002038866281509399</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.01441370509564877</v>
+        <v>0.02191178500652313</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.02066929638385773</v>
+        <v>0.06073996424674988</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.07913424074649811</v>
+        <v>0.0446665994822979</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.06027433276176453</v>
+        <v>0.0362822599709034</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.2253542691469193</v>
+        <v>0.04916655272245407</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.0359213650226593</v>
+        <v>0.006289934739470482</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.04958618432283401</v>
+        <v>0.03032000549137592</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.06913229823112488</v>
+        <v>0.04063704609870911</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.03024841658771038</v>
+        <v>0.02972430363297462</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.02824976295232773</v>
+        <v>0.03748960793018341</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.04382063820958138</v>
+        <v>0.004914642311632633</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.1011683940887451</v>
+        <v>0.0004262347356416285</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.007831517606973648</v>
+        <v>0.02047552727162838</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0234912633895874</v>
+        <v>0.03652786836028099</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.08330965042114258</v>
+        <v>0.02492925524711609</v>
       </c>
       <c r="BR3" t="n">
-        <v>9.814277291297913e-05</v>
+        <v>0.001631693681702018</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.05169057473540306</v>
+        <v>0.03613491356372833</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.01158064603805542</v>
+        <v>0.007840849459171295</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.1028301641345024</v>
+        <v>0.02574800886213779</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.05307156592607498</v>
+        <v>0.07929052412509918</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.08569065481424332</v>
+        <v>0.01580505259335041</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.02600430883467197</v>
+        <v>0.01798216253519058</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.07193482667207718</v>
+        <v>0.02053910866379738</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.1271199882030487</v>
+        <v>0.01091351825743914</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.01695292815566063</v>
+        <v>0.01809635385870934</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.03618144616484642</v>
+        <v>0.008189918473362923</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.04021451249718666</v>
+        <v>0.007969243451952934</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.02728202380239964</v>
+        <v>0.01016633957624435</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.06921100616455078</v>
+        <v>0.03870668262243271</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.05478046834468842</v>
+        <v>0.0150371827185154</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.02895599231123924</v>
+        <v>0.02126608975231647</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.02699261344969273</v>
+        <v>0.008956854231655598</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.01922492310404778</v>
+        <v>0.005382084287703037</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.0232137069106102</v>
+        <v>0.007711263839155436</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.00598648376762867</v>
+        <v>0.004558922257274389</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.00749213295057416</v>
+        <v>0.01453664526343346</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.02866279520094395</v>
+        <v>0.05942883715033531</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.01590492576360703</v>
+        <v>0.009702298790216446</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.04070696234703064</v>
+        <v>0.0006249092984944582</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.01860818266868591</v>
+        <v>0.05916963890194893</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.06072408333420753</v>
+        <v>0.03977994620800018</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.0170056875795126</v>
+        <v>0.00436397735029459</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.09208230674266815</v>
+        <v>0.03172486275434494</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.005989279132336378</v>
+        <v>0.02958502061665058</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.01297046430408955</v>
+        <v>0.007444247603416443</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.02400310523808002</v>
+        <v>0.006795509252697229</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.07803090661764145</v>
+        <v>0.03394464030861855</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.05361174792051315</v>
+        <v>0.02011124975979328</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.02009743452072144</v>
+        <v>0.02770957536995411</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.04471824690699577</v>
+        <v>0.01629592664539814</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.01860914193093777</v>
+        <v>0.005609096027910709</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.01685492135584354</v>
+        <v>0.01022866368293762</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.006645370740443468</v>
+        <v>0.002371031092479825</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.004117446951568127</v>
+        <v>0.01204157620668411</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.05037816613912582</v>
+        <v>0.01295418944209814</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.1618024706840515</v>
+        <v>0.001444365712814033</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.03620418161153793</v>
+        <v>0.0351104624569416</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.1127908155322075</v>
+        <v>0.07412131875753403</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.1102834641933441</v>
+        <v>0.01843683794140816</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.03475745394825935</v>
+        <v>0.02780023403465748</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.05326386168599129</v>
+        <v>0.02269487455487251</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.01372819021344185</v>
+        <v>0.01669849827885628</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.07581543922424316</v>
+        <v>0.04468012601137161</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.05504658073186874</v>
+        <v>0.01531229075044394</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.04854049906134605</v>
+        <v>0.00606698589399457</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.03119553998112679</v>
+        <v>0.00912605132907629</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.006729279644787312</v>
+        <v>0.02938880585134029</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.05704487487673759</v>
+        <v>0.03814912587404251</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.03452857211232185</v>
+        <v>0.01924146898090839</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.007123418152332306</v>
+        <v>0.005039828363806009</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.02401032298803329</v>
+        <v>0.02689541131258011</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.02249699458479881</v>
+        <v>0.0147186117246747</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.04109862074255943</v>
+        <v>0.01012526080012321</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.01341239083558321</v>
+        <v>0.002694903407245874</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.08771441876888275</v>
+        <v>0.01407313719391823</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.01150797307491302</v>
+        <v>0.03359592333436012</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.1433951407670975</v>
+        <v>0.01658331975340843</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.003230024129152298</v>
+        <v>0.008024083450436592</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.01300153974443674</v>
+        <v>0.01270135492086411</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.05601943284273148</v>
+        <v>0.002132072346284986</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.0322779044508934</v>
+        <v>0.009640722535550594</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.008767636492848396</v>
+        <v>0.003539362922310829</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.03881803154945374</v>
+        <v>0.04219716787338257</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.05272704735398293</v>
+        <v>0.02672774158418179</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.004897311329841614</v>
+        <v>0.02224940434098244</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.0276106670498848</v>
+        <v>0.01581643149256706</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.1040139347314835</v>
+        <v>0.009969605132937431</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.003450779244303703</v>
+        <v>0.01250654458999634</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.0009171506389975548</v>
+        <v>0.006384748965501785</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.0008599860593676567</v>
+        <v>0.007944749668240547</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.007350275292992592</v>
+        <v>0.004169379826635122</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.08992691338062286</v>
+        <v>0.02835727483034134</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.02328844927251339</v>
+        <v>0.03618169203400612</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.00588601641356945</v>
+        <v>0.01315901521593332</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0803157314658165</v>
+        <v>0.007041111588478088</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.01423171255737543</v>
+        <v>0.0100855240598321</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.08436410129070282</v>
+        <v>0.02147027291357517</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.005166931077837944</v>
+        <v>0.03187396749854088</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.006548897363245487</v>
+        <v>0.004882521461695433</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.03581852465867996</v>
+        <v>0.002141084522008896</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.0554705485701561</v>
+        <v>0.03566772490739822</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.05410519242286682</v>
+        <v>0.01409597601741552</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.01119928620755672</v>
+        <v>0.02073032036423683</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.04723484069108963</v>
+        <v>0.01272554136812687</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.002931541530415416</v>
+        <v>0.00770673668012023</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.02999571897089481</v>
+        <v>0.009010883048176765</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.007808067835867405</v>
+        <v>0.0001390380784869194</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.00103590777143836</v>
+        <v>0.01923237554728985</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.06870315223932266</v>
+        <v>0.01133534871041775</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.04013451933860779</v>
+        <v>0.0249972939491272</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.0172697976231575</v>
+        <v>0.02129686996340752</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.1008840352296829</v>
+        <v>0.03155066817998886</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.08329916745424271</v>
+        <v>0.005589243490248919</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.004842460155487061</v>
+        <v>0.04872716218233109</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.03426853567361832</v>
+        <v>0.01446969248354435</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.02087924629449844</v>
+        <v>0.008813846856355667</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.04510940611362457</v>
+        <v>0.02248254045844078</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.07817398011684418</v>
+        <v>0.004090254195034504</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.1063137948513031</v>
+        <v>0.04923146218061447</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.02844857983291149</v>
+        <v>0.02095050923526287</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.1792388707399368</v>
+        <v>0.03010198473930359</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.01833860948681831</v>
+        <v>0.02086017839610577</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.04739078134298325</v>
+        <v>0.008532754145562649</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.005326270125806332</v>
+        <v>0.008204535581171513</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.03377313166856766</v>
+        <v>0.004288826137781143</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.03087474405765533</v>
+        <v>0.03985657542943954</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.01280955690890551</v>
+        <v>0.05317580699920654</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.00775977224111557</v>
+        <v>0.01521414518356323</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.03181928768754005</v>
+        <v>0.01694888062775135</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.02805985696613789</v>
+        <v>0.01953768730163574</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.1484514027833939</v>
+        <v>0.05941043049097061</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.02761662006378174</v>
+        <v>0.05057359486818314</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.007736030034720898</v>
+        <v>0.06533278524875641</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.02622192911803722</v>
+        <v>0.0101487971842289</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.06941124796867371</v>
+        <v>0.01808490231633186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.006577302701771259</v>
+        <v>0.05457844212651253</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002462767530232668</v>
+        <v>0.3756232857704163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06220852583646774</v>
+        <v>0.03033032268285751</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001654436346143484</v>
+        <v>0.2345129102468491</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02232013456523418</v>
+        <v>0.0634068176150322</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001711755525320768</v>
+        <v>0.2796862125396729</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002112875459715724</v>
+        <v>0.01533949188888073</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008439844474196434</v>
+        <v>0.08798658847808838</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02572200633585453</v>
+        <v>0.04689948260784149</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01009402424097061</v>
+        <v>0.1229396834969521</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005859325174242258</v>
+        <v>0.2906569242477417</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0633762925863266</v>
+        <v>0.01113436929881573</v>
       </c>
       <c r="M4" t="n">
-        <v>0.008439402095973492</v>
+        <v>0.2099158614873886</v>
       </c>
       <c r="N4" t="n">
-        <v>0.003350301180034876</v>
+        <v>0.04510417953133583</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001398533815518022</v>
+        <v>0.3171952962875366</v>
       </c>
       <c r="P4" t="n">
-        <v>0.003941786475479603</v>
+        <v>0.003111096099019051</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.009813535027205944</v>
+        <v>0.01028158515691757</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03121892735362053</v>
+        <v>0.0483822226524353</v>
       </c>
       <c r="S4" t="n">
-        <v>0.004272571299225092</v>
+        <v>0.03576239943504333</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01615493185818195</v>
+        <v>0.05358003824949265</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002798144007101655</v>
+        <v>0.03973409906029701</v>
       </c>
       <c r="V4" t="n">
-        <v>0.005164700094610453</v>
+        <v>0.04847288504242897</v>
       </c>
       <c r="W4" t="n">
-        <v>0.003501815954223275</v>
+        <v>0.02397040650248528</v>
       </c>
       <c r="X4" t="n">
-        <v>0.003427116898819804</v>
+        <v>0.02149491012096405</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001292141969315708</v>
+        <v>0.05130007117986679</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.008821491152048111</v>
+        <v>0.03464151918888092</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.003299428382888436</v>
+        <v>0.04685020074248314</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.001522517763078213</v>
+        <v>0.003164010122418404</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.003316548652946949</v>
+        <v>0.03682489320635796</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01264254003763199</v>
+        <v>0.01880984753370285</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.003511083777993917</v>
+        <v>0.004202829208225012</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.003276629606261849</v>
+        <v>0.01431651599705219</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.003879219992086291</v>
+        <v>0.003874869085848331</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0004725263570435345</v>
+        <v>0.02461028657853603</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.006242466624826193</v>
+        <v>0.03200426697731018</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.01363888755440712</v>
+        <v>0.0341029018163681</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.005499874707311392</v>
+        <v>0.03619958832859993</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.003465953283011913</v>
+        <v>0.06743139028549194</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.01090407930314541</v>
+        <v>0.0231385100632906</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.0006569693796336651</v>
+        <v>0.002757499925792217</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0009652388980612159</v>
+        <v>0.02291881665587425</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.001398298307321966</v>
+        <v>0.0453488677740097</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0003044347977265716</v>
+        <v>0.006613964680582285</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.002194430911913514</v>
+        <v>0.03217770904302597</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.002063127933070064</v>
+        <v>0.05552578344941139</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.008462951518595219</v>
+        <v>0.02772539854049683</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.001276766415685415</v>
+        <v>0.2406556606292725</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.02824487164616585</v>
+        <v>0.02018558979034424</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.002525975462049246</v>
+        <v>0.04015438258647919</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0034836963750422</v>
+        <v>0.04253765940666199</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.01487684994935989</v>
+        <v>0.1426982432603836</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.001752236159518361</v>
+        <v>0.01777143403887749</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.003590037580579519</v>
+        <v>0.04464329034090042</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.0006228253478184342</v>
+        <v>0.08129778504371643</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.001902126474305987</v>
+        <v>0.06491909921169281</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.002154616871848702</v>
+        <v>0.06595359742641449</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.01951863616704941</v>
+        <v>0.1089368686079979</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.009491032920777798</v>
+        <v>0.07144185155630112</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.01201948150992393</v>
+        <v>0.09441772103309631</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.007765245623886585</v>
+        <v>0.07702707499265671</v>
       </c>
       <c r="BI4" t="n">
-        <v>5.046837031841278e-05</v>
+        <v>0.01157144643366337</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.000730061496142298</v>
+        <v>0.05949734151363373</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.008312063291668892</v>
+        <v>0.03789833560585976</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.003994123544543982</v>
+        <v>0.01199036557227373</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0005925846635363996</v>
+        <v>0.04305504634976387</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.01649710908532143</v>
+        <v>0.04697418585419655</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.002440423239022493</v>
+        <v>0.04880088940262794</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.009806119836866856</v>
+        <v>0.0252128466963768</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.005124693736433983</v>
+        <v>0.003847848856821656</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.001021851552650332</v>
+        <v>0.02180861122906208</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.006515820976346731</v>
+        <v>0.02461914345622063</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.007234144955873489</v>
+        <v>0.01277627609670162</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.008516306988894939</v>
+        <v>0.02563236653804779</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0002592573873698711</v>
+        <v>0.1163399592041969</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.01836011745035648</v>
+        <v>0.05812428146600723</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.00413386058062315</v>
+        <v>0.07928436994552612</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.006891756318509579</v>
+        <v>0.04888933524489403</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.01031081564724445</v>
+        <v>0.05792932212352753</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.00311242463067174</v>
+        <v>0.02540765888988972</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.0034860884770751</v>
+        <v>0.02788450382649899</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.008264975622296333</v>
+        <v>0.06180310994386673</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.0001261630095541477</v>
+        <v>0.007952975109219551</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.006006819196045399</v>
+        <v>0.0570480078458786</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0100866686552763</v>
+        <v>0.05573854222893715</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.0001548842410556972</v>
+        <v>0.03927101939916611</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.003486911533400416</v>
+        <v>0.01953767240047455</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.0008129113120958209</v>
+        <v>0.05299118533730507</v>
       </c>
       <c r="CJ4" t="n">
-        <v>5.068225436843932e-05</v>
+        <v>0.01743324100971222</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.0002506303135305643</v>
+        <v>0.01782448217272758</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.003303976263850927</v>
+        <v>0.0330570787191391</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.002700099721550941</v>
+        <v>0.04176101833581924</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.01312518306076527</v>
+        <v>0.01112117804586887</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0002069718902930617</v>
+        <v>0.0171076525002718</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.003127214731648564</v>
+        <v>0.002501560375094414</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.005424114875495434</v>
+        <v>0.02368350327014923</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.001353470259346068</v>
+        <v>0.008406748063862324</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.001499952166341245</v>
+        <v>0.05154208093881607</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.004597540013492107</v>
+        <v>0.05397816747426987</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.01222112402319908</v>
+        <v>0.02523364499211311</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.0007621250697411597</v>
+        <v>0.001497677527368069</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.003993203863501549</v>
+        <v>0.05205310508608818</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.01106997020542622</v>
+        <v>0.05036782473325729</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.0001008026883937418</v>
+        <v>0.0566357895731926</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.006873063743114471</v>
+        <v>0.01338917575776577</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.001104015624150634</v>
+        <v>0.06164043396711349</v>
       </c>
       <c r="DB4" t="n">
-        <v>9.543687338009477e-05</v>
+        <v>0.01668207347393036</v>
       </c>
       <c r="DC4" t="n">
-        <v>9.896905976347625e-05</v>
+        <v>0.0389118567109108</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.003743703244253993</v>
+        <v>0.01706108264625072</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.0008449391461908817</v>
+        <v>0.03620408475399017</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.01162653788924217</v>
+        <v>0.02633428946137428</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.00623052567243576</v>
+        <v>0.01734518446028233</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.008095527067780495</v>
+        <v>0.1200615391135216</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.006716465577483177</v>
+        <v>0.008102457970380783</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.008848588913679123</v>
+        <v>0.05493876338005066</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.004669275600463152</v>
+        <v>0.02371705882251263</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.0007446695235557854</v>
+        <v>0.03509920462965965</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.006634773686528206</v>
+        <v>0.003570393659174442</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.002367904642596841</v>
+        <v>0.008960703387856483</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.003298904746770859</v>
+        <v>0.00413492089137435</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.003251756075769663</v>
+        <v>0.02526364289224148</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.002453780034556985</v>
+        <v>0.04190965741872787</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.004175682552158833</v>
+        <v>0.0166858434677124</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.006299876607954502</v>
+        <v>0.01827895641326904</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.001685622264631093</v>
+        <v>0.050902359187603</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.001973884645849466</v>
+        <v>0.003883205354213715</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.006898852065205574</v>
+        <v>0.0766669288277626</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.002484695520251989</v>
+        <v>0.01705084554851055</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.001086366246454418</v>
+        <v>0.02630777284502983</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.008973767980933189</v>
+        <v>0.07657863944768906</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.007018041796982288</v>
+        <v>0.005190829280763865</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.003746876958757639</v>
+        <v>0.006334889214485884</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.007331155706197023</v>
+        <v>0.03182429820299149</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.002627315232530236</v>
+        <v>0.009207927621901035</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0003989113611169159</v>
+        <v>0.04018684849143028</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.0001283774618059397</v>
+        <v>0.03279417753219604</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.000552564742974937</v>
+        <v>0.02594790235161781</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.004225699696689844</v>
+        <v>0.04459322616457939</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.01025988068431616</v>
+        <v>0.03917503729462624</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.0006165970698930323</v>
+        <v>0.007517899386584759</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.001831807312555611</v>
+        <v>0.003479829989373684</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.007514525670558214</v>
+        <v>0.07317104190587997</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.001371829072013497</v>
+        <v>0.017808448523283</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.005848041735589504</v>
+        <v>0.002942110178992152</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.001533817383460701</v>
+        <v>0.01000607758760452</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.002373393857851624</v>
+        <v>0.0005208402872085571</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.009892540983855724</v>
+        <v>0.01982064545154572</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.004364547319710255</v>
+        <v>0.05501390248537064</v>
       </c>
       <c r="ER4" t="n">
-        <v>6.16583856754005e-05</v>
+        <v>0.02689535170793533</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.006536538247019053</v>
+        <v>0.01891452819108963</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.007866080850362778</v>
+        <v>0.04267245158553123</v>
       </c>
       <c r="EU4" t="n">
-        <v>4.472094587981701e-05</v>
+        <v>0.03654268383979797</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.0004959938232786953</v>
+        <v>0.07635681331157684</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.008261827751994133</v>
+        <v>0.008555658161640167</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.002166804159060121</v>
+        <v>0.004427297506481409</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.003467369358986616</v>
+        <v>0.04936835542321205</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.01134046167135239</v>
+        <v>0.04201489314436913</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.0008840326918289065</v>
+        <v>0.05198299139738083</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.004596633370965719</v>
+        <v>0.02045406214892864</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.0008653814438730478</v>
+        <v>0.04896673932671547</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.000916244403924793</v>
+        <v>0.02905838191509247</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.001823881291784346</v>
+        <v>0.02163996547460556</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.004563538357615471</v>
+        <v>0.03138886392116547</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.0009005921892821789</v>
+        <v>0.006208615377545357</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.002991456538438797</v>
+        <v>0.03229715675115585</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.007293496746569872</v>
+        <v>0.05452577397227287</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.007685366086661816</v>
+        <v>0.04910299554467201</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.009317866526544094</v>
+        <v>0.004939310252666473</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.002220867201685905</v>
+        <v>0.04468736425042152</v>
       </c>
       <c r="FM4" t="n">
-        <v>5.002378020435572e-05</v>
+        <v>0.0335359163582325</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.003027240047231317</v>
+        <v>0.0377482958137989</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.008315044455230236</v>
+        <v>0.03272994980216026</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.001229351386427879</v>
+        <v>0.013138797134161</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.01826526783406734</v>
+        <v>0.08496060967445374</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.008446967229247093</v>
+        <v>0.02928194962441921</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.001508914632722735</v>
+        <v>0.09293189644813538</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.008332805708050728</v>
+        <v>0.06183003261685371</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.003144414629787207</v>
+        <v>0.009614067152142525</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.0009575639269314706</v>
+        <v>0.02452370524406433</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.004941338673233986</v>
+        <v>0.01668340899050236</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0007559125660918653</v>
+        <v>0.003766804933547974</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.0004731229855678976</v>
+        <v>0.07583771646022797</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.002441680058836937</v>
+        <v>0.01706644706428051</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.004388114437460899</v>
+        <v>0.01780634000897408</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.002254158956930041</v>
+        <v>0.005877618212252855</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.004524130374193192</v>
+        <v>0.03433831781148911</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.00945940800011158</v>
+        <v>0.02571260929107666</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.000537250773049891</v>
+        <v>0.2002549916505814</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.0002171401865780354</v>
+        <v>0.01086142845451832</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.0008671907125972211</v>
+        <v>0.03880258277058601</v>
       </c>
     </row>
     <row r="5">
@@ -3280,2278 +3280,2278 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0008018707158043981</v>
+        <v>0.007932856678962708</v>
       </c>
       <c r="B6" t="n">
-        <v>0.001633628970012069</v>
+        <v>0.02577734924852848</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01659590192139149</v>
+        <v>0.001470871036872268</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002150628715753555</v>
+        <v>0.007322455756366253</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01713616400957108</v>
+        <v>0.008332409895956516</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007069393526762724</v>
+        <v>0.0006805340526625514</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005267675034701824</v>
+        <v>0.002283164067193866</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002121056662872434</v>
+        <v>0.003207980189472437</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004887331160716712</v>
+        <v>0.001277273637242615</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0008223887998610735</v>
+        <v>0.006206990219652653</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004257169086486101</v>
+        <v>0.01925135217607021</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01969886943697929</v>
+        <v>0.002340571023523808</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003783819498494267</v>
+        <v>0.01364952325820923</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01185615360736847</v>
+        <v>0.01271630730479956</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003390506841242313</v>
+        <v>0.004703526385128498</v>
       </c>
       <c r="P6" t="n">
-        <v>0.006437401287257671</v>
+        <v>0.003797572338953614</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.61704733222723e-05</v>
+        <v>0.01583203859627247</v>
       </c>
       <c r="R6" t="n">
-        <v>0.003339909948408604</v>
+        <v>0.00161421368829906</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0005936241941526532</v>
+        <v>0.0007204997236840427</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0007614305941388011</v>
+        <v>0.01153465453535318</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0009050056687556207</v>
+        <v>0.0001905073731904849</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00302839744836092</v>
+        <v>0.0002753563458099961</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001062206109054387</v>
+        <v>0.005711445584893227</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001412134966813028</v>
+        <v>0.003740556072443724</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001608537510037422</v>
+        <v>0.004067912232130766</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.001070980215445161</v>
+        <v>0.001476195175200701</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.002534513361752033</v>
+        <v>0.001991151599213481</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.00106858043000102</v>
+        <v>0.005118688568472862</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.001714451820589602</v>
+        <v>0.007026046048849821</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0009955725399777293</v>
+        <v>0.004489159677177668</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.001294392161071301</v>
+        <v>0.006615094840526581</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.004798382055014372</v>
+        <v>0.004758074879646301</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.100869308691472e-05</v>
+        <v>0.0004306462360545993</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.005312846973538399</v>
+        <v>0.006812247447669506</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.006123097613453865</v>
+        <v>0.003472653916105628</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.003708695061504841</v>
+        <v>0.0006734210764989257</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0007581698009744287</v>
+        <v>0.005126910284161568</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.004470967687666416</v>
+        <v>0.006912511773407459</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.003263541962951422</v>
+        <v>0.0005705206422135234</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.001889817765913904</v>
+        <v>0.001576295355334878</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.001351951388642192</v>
+        <v>0.0003769909671973437</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.001038142829202116</v>
+        <v>0.001406802679412067</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.000494275416713208</v>
+        <v>0.002278969157487154</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.0004041405918542296</v>
+        <v>0.0007326493505388498</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.001910699997097254</v>
+        <v>0.001859343028627336</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.004475686699151993</v>
+        <v>0.00877761747688055</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.005390508566051722</v>
+        <v>0.02751647494733334</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.007407791912555695</v>
+        <v>0.004898596554994583</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.002933218609541655</v>
+        <v>0.00130978471133858</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.001803690334782004</v>
+        <v>0.003305660560727119</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.004530462902039289</v>
+        <v>8.243863703683019e-06</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.000525144743733108</v>
+        <v>0.001004039775580168</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.008197696879506111</v>
+        <v>0.005613801535218954</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.004222821444272995</v>
+        <v>0.0003140599001199007</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.001617605099454522</v>
+        <v>0.004246861208230257</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.000571517797652632</v>
+        <v>0.003308265237137675</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.001842918922193348</v>
+        <v>0.00428247032687068</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.0008917719242163002</v>
+        <v>0.004552064463496208</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.01424180809408426</v>
+        <v>0.007454440463334322</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.00390318944118917</v>
+        <v>0.003582568140700459</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.002557572675868869</v>
+        <v>0.0009401781135238707</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.002893904456868768</v>
+        <v>0.01105805207043886</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.001289985491894186</v>
+        <v>0.0002281744382344186</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.001444584922865033</v>
+        <v>0.002501898212358356</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.0005597135168500245</v>
+        <v>0.007447283249348402</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.003740530693903565</v>
+        <v>0.002036649035289884</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.001628709957003593</v>
+        <v>0.01051430683583021</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.001041091862134635</v>
+        <v>0.0114483255892992</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.0001175072029582225</v>
+        <v>0.005667570978403091</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.0005934664513915777</v>
+        <v>1.738924765959382e-05</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.003158849896863103</v>
+        <v>0.004685454536229372</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.001201600884087384</v>
+        <v>0.00163604982662946</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.0009489592048339546</v>
+        <v>0.004292059689760208</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.001286584418267012</v>
+        <v>0.01503995060920715</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.005822472274303436</v>
+        <v>0.002268335316330194</v>
       </c>
       <c r="BX6" t="n">
-        <v>9.612871508579701e-06</v>
+        <v>0.001376911881379783</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.003059759270399809</v>
+        <v>0.001181753119453788</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.001757397432811558</v>
+        <v>0.001969607314094901</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.0003484295448288321</v>
+        <v>0.007120163645595312</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.004189387429505587</v>
+        <v>0.003783403895795345</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.0001395973959006369</v>
+        <v>0.00110485078766942</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.0007720536668784916</v>
+        <v>0.0009022966842167079</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.002486657351255417</v>
+        <v>0.004510359838604927</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.002948600798845291</v>
+        <v>0.0001840753830038011</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.00130038452334702</v>
+        <v>0.004092113114893436</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.002159913536161184</v>
+        <v>9.881430014502257e-05</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.001593748456798494</v>
+        <v>0.001472388627007604</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.0006935456767678261</v>
+        <v>0.0004223590367473662</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.0003621457726694643</v>
+        <v>0.0001842819037847221</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.0003061759343836457</v>
+        <v>0.001545175211504102</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.002656410215422511</v>
+        <v>0.01206103898584843</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.001380439847707748</v>
+        <v>0.01088284980505705</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.00241820071823895</v>
+        <v>0.0004353885306045413</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.0005030642496421933</v>
+        <v>0.004951523151248693</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.001199383637867868</v>
+        <v>0.01303276978433132</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.003425359725952148</v>
+        <v>0.001342760515399277</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.001762331230565906</v>
+        <v>0.001757932361215353</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.001085525145754218</v>
+        <v>0.001627929857932031</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.002497208770364523</v>
+        <v>0.0002998257405124605</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.0003398595727048814</v>
+        <v>0.0001009054249152541</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.002654475159943104</v>
+        <v>0.004017917905002832</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.003214084543287754</v>
+        <v>0.0009038745192810893</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.001617241185158491</v>
+        <v>0.005718246567994356</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.003708945820108056</v>
+        <v>0.0002556472318246961</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.002244340721517801</v>
+        <v>0.002081054961308837</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.0002123532467521727</v>
+        <v>0.0004411252157296985</v>
       </c>
       <c r="DC6" t="n">
-        <v>8.104962762445211e-05</v>
+        <v>0.001661871327087283</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.0003433207457419485</v>
+        <v>0.00109944143332541</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.004835072904825211</v>
+        <v>0.01083397772163153</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.001070480793714523</v>
+        <v>0.01990207470953465</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.00224491092376411</v>
+        <v>0.002876560436561704</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.0004582794499583542</v>
+        <v>0.01008364278823137</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.002443807199597359</v>
+        <v>0.001998697174713016</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.00609511649236083</v>
+        <v>0.002698839642107487</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.001390245743095875</v>
+        <v>0.01493408810347319</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.002869661431759596</v>
+        <v>0.003031140426173806</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.0006871299119666219</v>
+        <v>0.0003526093496475369</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.00281637767329812</v>
+        <v>0.005720242392271757</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.0001278086565434933</v>
+        <v>0.006563286297023296</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.0004418321768753231</v>
+        <v>0.001634565182030201</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.0002041429397650063</v>
+        <v>0.0004940323997288942</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.0001244336017407477</v>
+        <v>0.005637760274112225</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.001223275787197053</v>
+        <v>0.002074817661195993</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.002740324940532446</v>
+        <v>0.004521906841546297</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.001093308907002211</v>
+        <v>0.0003561359189916402</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.0003350148326717317</v>
+        <v>0.003185298526659608</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.001318385009653866</v>
+        <v>0.001529667293652892</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.0009803010616451502</v>
+        <v>0.0002881675027310848</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.0003756954683922231</v>
+        <v>0.002798715606331825</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.001896259258501232</v>
+        <v>0.00539806392043829</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.003207448404282331</v>
+        <v>0.004997302312403917</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.001348332269117236</v>
+        <v>0.0006965588545426726</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.0006348158931359649</v>
+        <v>0.003256865544244647</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.002645210595801473</v>
+        <v>0.001685741008259356</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.0001920592912938446</v>
+        <v>0.001734242308884859</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.001192067051306367</v>
+        <v>0.003531458554789424</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.0009789832402020693</v>
+        <v>0.002618097700178623</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.004302144981920719</v>
+        <v>0.0003768842434510589</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.002610223600640893</v>
+        <v>0.01025423873215914</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.004777812864631414</v>
+        <v>0.002551381243392825</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.005325694102793932</v>
+        <v>0.002017690800130367</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.001144857844337821</v>
+        <v>0.001786037115380168</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.0007446992094628513</v>
+        <v>0.00174108671490103</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.002721776254475117</v>
+        <v>0.0005650732200592756</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.001762122032232583</v>
+        <v>0.002693346701562405</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.003627373138442636</v>
+        <v>0.0004723543825093657</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.0008305738447234035</v>
+        <v>0.003974697086960077</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.001913645886816084</v>
+        <v>0.003432042431086302</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.001719510415568948</v>
+        <v>0.002032083459198475</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.0005007046274840832</v>
+        <v>0.002992274006828666</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.000699723488651216</v>
+        <v>0.001049506361596286</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.004068071953952312</v>
+        <v>0.002699804725125432</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.001701246132142842</v>
+        <v>0.001255988259799778</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.001234309282153845</v>
+        <v>0.0006759213865734637</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.002008102834224701</v>
+        <v>0.003082334762439132</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.003001781180500984</v>
+        <v>0.000377671851310879</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.001259594224393368</v>
+        <v>0.003919463604688644</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.003185712033882737</v>
+        <v>0.0009960496099665761</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.001435120357200503</v>
+        <v>0.001800822443328798</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.0004655587836168706</v>
+        <v>0.00120525062084198</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.000170275176060386</v>
+        <v>0.0007431705016642809</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.0002009078161790967</v>
+        <v>0.0009916946291923523</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.001240525394678116</v>
+        <v>0.004816002678126097</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.0014991540228948</v>
+        <v>0.005432236939668655</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.003280533477663994</v>
+        <v>0.002766958903521299</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.000204560172278434</v>
+        <v>0.002417886396870017</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.0006911082891747355</v>
+        <v>0.001780584105290473</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.001635307446122169</v>
+        <v>0.001869285013526678</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.00242725620046258</v>
+        <v>0.001735456986352801</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.001915709697641432</v>
+        <v>2.085580490529537e-06</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.001157657941803336</v>
+        <v>0.0004801842151209712</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.006873420439660549</v>
+        <v>0.0001941947266459465</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.005370632745325565</v>
+        <v>0.001779906218871474</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.002480308758094907</v>
+        <v>0.002222888404503465</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.002351343398913741</v>
+        <v>0.009526392444968224</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.002992798108607531</v>
+        <v>0.005897046532481909</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.0007740961736999452</v>
+        <v>0.0005723538342863321</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.0002793697058223188</v>
+        <v>0.001529734116047621</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.002533286344259977</v>
+        <v>0.007425857242196798</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.002966950181871653</v>
+        <v>0.001273832516744733</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.0001706565963104367</v>
+        <v>0.0005674734711647034</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.001803699648007751</v>
+        <v>0.008964279666543007</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.001305963145568967</v>
+        <v>0.004055289085954428</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.002575191203504801</v>
+        <v>0.007717376109212637</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.00263080932199955</v>
+        <v>0.005527990870177746</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.0006259963847696781</v>
+        <v>0.004829930607229471</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.0007564275292679667</v>
+        <v>0.007299049757421017</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.0007313695969060063</v>
+        <v>0.009782526642084122</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.001677751424722373</v>
+        <v>0.001857413444668055</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0652540996670723</v>
+        <v>0.03468569368124008</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1298564970493317</v>
+        <v>0.2304315268993378</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1100329607725143</v>
+        <v>0.00364498351700604</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05112755671143532</v>
+        <v>0.06026255711913109</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01140672527253628</v>
+        <v>0.04774196445941925</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02466898411512375</v>
+        <v>0.04817932471632957</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02221032977104187</v>
+        <v>0.0202962476760149</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005351760424673557</v>
+        <v>0.03068861365318298</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02813048660755157</v>
+        <v>0.03728534653782845</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08017893880605698</v>
+        <v>0.04057872667908669</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1164780706167221</v>
+        <v>0.1786040067672729</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1303090006113052</v>
+        <v>0.002172365318983793</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006290605291724205</v>
+        <v>0.05011249333620071</v>
       </c>
       <c r="N7" t="n">
-        <v>0.006767434999346733</v>
+        <v>0.06938368827104568</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06914687156677246</v>
+        <v>0.05045506358146667</v>
       </c>
       <c r="P7" t="n">
-        <v>0.006439324468374252</v>
+        <v>0.009835397824645042</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01595271565020084</v>
+        <v>0.02712742425501347</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02554699033498764</v>
+        <v>0.04998242482542992</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01678328029811382</v>
+        <v>0.008924354799091816</v>
       </c>
       <c r="T7" t="n">
-        <v>0.05423266068100929</v>
+        <v>0.04780682548880577</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03205340355634689</v>
+        <v>0.004263845272362232</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01075354684144258</v>
+        <v>0.02170123532414436</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05059731751680374</v>
+        <v>0.03910066187381744</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03645383939146996</v>
+        <v>0.03534236550331116</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01602353528141975</v>
+        <v>0.02519400045275688</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.004302075132727623</v>
+        <v>0.03784313797950745</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.008793355897068977</v>
+        <v>0.02310406789183617</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01477184612303972</v>
+        <v>0.01263311319053173</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.04425661265850067</v>
+        <v>0.007963970303535461</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.05347183719277382</v>
+        <v>0.001769413240253925</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.03707067668437958</v>
+        <v>0.004344046115875244</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01089862920343876</v>
+        <v>0.02742171473801136</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.03780711442232132</v>
+        <v>0.05497945845127106</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.03557790815830231</v>
+        <v>0.01578608341515064</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.03283567354083061</v>
+        <v>0.00348326563835144</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.03548675030469894</v>
+        <v>0.01374913286417723</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.01951435580849648</v>
+        <v>0.03736318647861481</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.01722411066293716</v>
+        <v>0.05462007224559784</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.01344086974859238</v>
+        <v>0.01449438091367483</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.01306627225130796</v>
+        <v>0.004713802132755518</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.003426221199333668</v>
+        <v>0.003484823042526841</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.01610143668949604</v>
+        <v>0.02530515566468239</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.006812565959990025</v>
+        <v>0.0008932310156524181</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.02060745656490326</v>
+        <v>0.01344011817127466</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.01506754569709301</v>
+        <v>0.01256027445197105</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.06640733033418655</v>
+        <v>0.004190332721918821</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.04933557659387589</v>
+        <v>0.1513236612081528</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.008225562982261181</v>
+        <v>0.001402716268785298</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.01596304960548878</v>
+        <v>0.01182623021304607</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.04429896920919418</v>
+        <v>0.006365088745951653</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.02084847912192345</v>
+        <v>0.02572965994477272</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.002890632022172213</v>
+        <v>0.001824995502829552</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.01024400442838669</v>
+        <v>0.002652611350640655</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.007059041410684586</v>
+        <v>5.975132808089256e-06</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.02979182451963425</v>
+        <v>0.0035701934248209</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.06055509299039841</v>
+        <v>0.02261505834758282</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.06313930451869965</v>
+        <v>0.001495747361332178</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.00210287794470787</v>
+        <v>0.01188762206584215</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.04564276337623596</v>
+        <v>0.04915806651115417</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.02268210425972939</v>
+        <v>0.004128099419176579</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.007127106189727783</v>
+        <v>0.01345061045140028</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.01084150187671185</v>
+        <v>0.007736751809716225</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.01024521142244339</v>
+        <v>0.03418122231960297</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.04285264387726784</v>
+        <v>0.01163980644196272</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0111116748303175</v>
+        <v>0.0147472508251667</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.03069584630429745</v>
+        <v>0.01155652943998575</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.01781118102371693</v>
+        <v>0.0002859283704310656</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.008501906879246235</v>
+        <v>0.01680160313844681</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.03872477635741234</v>
+        <v>0.01768122054636478</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.004931092262268066</v>
+        <v>0.01103659812361002</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.005878569558262825</v>
+        <v>0.01610415056347847</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.01076272036880255</v>
+        <v>0.02231390401721001</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.04927648231387138</v>
+        <v>0.01994093507528305</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.04303871095180511</v>
+        <v>0.1183612868189812</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.04661509022116661</v>
+        <v>0.01082479674369097</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.01935478113591671</v>
+        <v>0.04578834399580956</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.01675333455204964</v>
+        <v>0.01758826710283756</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.02385360933840275</v>
+        <v>0.002566629089415073</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.009023525752127171</v>
+        <v>0.01614568941295147</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.02709558978676796</v>
+        <v>0.01839510537683964</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.00929412804543972</v>
+        <v>0.02110292948782444</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.01707348600029945</v>
+        <v>0.01410489343106747</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.02138936147093773</v>
+        <v>0.02617056109011173</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0107030663639307</v>
+        <v>0.00762628298252821</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.005710175260901451</v>
+        <v>0.012996188364923</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0007347818464040756</v>
+        <v>0.006168273743242025</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.003883474972099066</v>
+        <v>0.00770215317606926</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.008281804621219635</v>
+        <v>0.009568950161337852</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.001019043033011258</v>
+        <v>0.005403670482337475</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.003933635540306568</v>
+        <v>0.006062959786504507</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.01311901211738586</v>
+        <v>0.03959646821022034</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0007225573062896729</v>
+        <v>0.002744609955698252</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.003004017286002636</v>
+        <v>0.0004275833780411631</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.02835365757346153</v>
+        <v>0.01170823723077774</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.02467394433915615</v>
+        <v>0.05990557372570038</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.04449942335486412</v>
+        <v>0.01138416957110167</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.0203381460160017</v>
+        <v>0.0387931764125824</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.02302603051066399</v>
+        <v>0.03099732287228107</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.01049973536282778</v>
+        <v>0.005299638025462627</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.01379998959600925</v>
+        <v>0.007516337092965841</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.02184590697288513</v>
+        <v>0.03214424476027489</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.02033082023262978</v>
+        <v>0.007475089281797409</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.004693768452852964</v>
+        <v>0.0165505763143301</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.006987236440181732</v>
+        <v>0.004666280932724476</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.005617451388388872</v>
+        <v>0.02113377302885056</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.01356683205813169</v>
+        <v>0.01127643510699272</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.003706515999510884</v>
+        <v>0.009514014236629009</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.004388559143990278</v>
+        <v>0.001812099479138851</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.03501800075173378</v>
+        <v>0.001394676859490573</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.01124252192676067</v>
+        <v>0.06104137003421783</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.02278620190918446</v>
+        <v>0.01417741365730762</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.05016365647315979</v>
+        <v>0.06483285129070282</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.01385058276355267</v>
+        <v>0.01892015337944031</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.007959918119013309</v>
+        <v>0.04790213704109192</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.05172164365649223</v>
+        <v>0.001551270484924316</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.01074511744081974</v>
+        <v>0.004854658618569374</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.001030594110488892</v>
+        <v>0.02450384944677353</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.05830318480730057</v>
+        <v>0.01344948727637529</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.04245482385158539</v>
+        <v>0.02116064913570881</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.03111810050904751</v>
+        <v>0.008942476473748684</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.001237844116985798</v>
+        <v>0.02141338214278221</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.02778809890151024</v>
+        <v>0.01565233059227467</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.02179102227091789</v>
+        <v>0.00296326307579875</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.004667215049266815</v>
+        <v>0.0133869843557477</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.004807182122021914</v>
+        <v>0.005855904426425695</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0161407794803381</v>
+        <v>0.03018786385655403</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.002414740156382322</v>
+        <v>0.005451527889817953</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.01261590607464314</v>
+        <v>0.0148030836135149</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0334874764084816</v>
+        <v>0.02727090194821358</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.007212122902274132</v>
+        <v>0.005714026279747486</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.02174519747495651</v>
+        <v>0.01899673230946064</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.001109388424083591</v>
+        <v>0.005682737100869417</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.002398060401901603</v>
+        <v>0.005191062111407518</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.02493645995855331</v>
+        <v>0.004712437279522419</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.02323563396930695</v>
+        <v>0.01206409372389317</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.01079732645303011</v>
+        <v>0.004443877376616001</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.01077945716679096</v>
+        <v>1.974584301933646e-05</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.02162464894354343</v>
+        <v>0.007526720874011517</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.0182922538369894</v>
+        <v>0.002811377868056297</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0113458689302206</v>
+        <v>0.01081440132111311</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.0001742364838719368</v>
+        <v>0.02565654739737511</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.01303854584693909</v>
+        <v>0.00438335444778204</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.006612812168896198</v>
+        <v>0.002099090721458197</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.005118561908602715</v>
+        <v>0.002107417210936546</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.02576958015561104</v>
+        <v>0.01484781689941883</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.06338959932327271</v>
+        <v>0.006807435769587755</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.02102135494351387</v>
+        <v>0.001906551420688629</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.009566465392708778</v>
+        <v>0.001093707513064146</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.05446803197264671</v>
+        <v>0.01476447004824877</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.009371653199195862</v>
+        <v>0.04872629791498184</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.00452077854424715</v>
+        <v>0.02413319982588291</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.0111633725464344</v>
+        <v>0.04778793081641197</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.009939917363226414</v>
+        <v>0.0113488519564271</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.02852309681475163</v>
+        <v>0.00955900177359581</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.01926295831799507</v>
+        <v>0.03034671023488045</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.01594813540577888</v>
+        <v>0.002737225731834769</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.001006303238682449</v>
+        <v>0.01774978637695312</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.001676741056144238</v>
+        <v>0.01149822305887938</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.007883879356086254</v>
+        <v>0.0122890817001462</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.01177659723907709</v>
+        <v>0.01646220684051514</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.001338221598416567</v>
+        <v>0.0008034716593101621</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.009434720501303673</v>
+        <v>0.0071293362416327</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.01582565158605576</v>
+        <v>0.003072794061154127</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.01378047931939363</v>
+        <v>0.02968758158385754</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.02138176001608372</v>
+        <v>0.009567605331540108</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.0463564544916153</v>
+        <v>0.02541985735297203</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.0194048136472702</v>
+        <v>0.001034821500070393</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.03064693138003349</v>
+        <v>0.01412237901240587</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.01437789853662252</v>
+        <v>0.009368119761347771</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.01686381734907627</v>
+        <v>0.02016894146800041</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.00761255482211709</v>
+        <v>0.006761663593351841</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.02326824888586998</v>
+        <v>0.002753428416326642</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.02597390860319138</v>
+        <v>0.07008940726518631</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.001972618978470564</v>
+        <v>0.01325458195060492</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.07635898888111115</v>
+        <v>0.05652591586112976</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.04509874805808067</v>
+        <v>0.02731721475720406</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.01067327056080103</v>
+        <v>0.009592863731086254</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.006238514557480812</v>
+        <v>0.03574923425912857</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.02159876748919487</v>
+        <v>0.01895685866475105</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.06234005093574524</v>
+        <v>0.003193545155227184</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.005520861595869064</v>
+        <v>0.01717414148151875</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.001264293678104877</v>
+        <v>0.005347234662622213</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.01866026222705841</v>
+        <v>0.002702792640775442</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.03383507952094078</v>
+        <v>0.006324952468276024</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.02298456802964211</v>
+        <v>0.1022794395685196</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.00650764349848032</v>
+        <v>0.02015914209187031</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.005581696983426809</v>
+        <v>0.09820006787776947</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.03224106505513191</v>
+        <v>0.01102563086897135</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0007584583945572376</v>
+        <v>0.01426885556429625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.00405955221503973</v>
+        <v>0.01013845764100552</v>
       </c>
       <c r="B8" t="n">
-        <v>0.009527821093797684</v>
+        <v>0.04491573572158813</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01997677981853485</v>
+        <v>0.004828461911529303</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01460732892155647</v>
+        <v>0.007792601361870766</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01558072213083506</v>
+        <v>0.01292853616178036</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002165452810004354</v>
+        <v>0.00445549888536334</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000929869944229722</v>
+        <v>0.02124584093689919</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008098839782178402</v>
+        <v>0.002968453336507082</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00764787569642067</v>
+        <v>0.00115259422454983</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007239569444209337</v>
+        <v>0.01218260452151299</v>
       </c>
       <c r="K8" t="n">
-        <v>0.009433764964342117</v>
+        <v>0.03182101994752884</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02307308092713356</v>
+        <v>0.003975523170083761</v>
       </c>
       <c r="M8" t="n">
-        <v>0.007157078012824059</v>
+        <v>0.01893038302659988</v>
       </c>
       <c r="N8" t="n">
-        <v>0.003013364272192121</v>
+        <v>0.01806020177900791</v>
       </c>
       <c r="O8" t="n">
-        <v>0.009878586046397686</v>
+        <v>0.01056493073701859</v>
       </c>
       <c r="P8" t="n">
-        <v>0.004481779877096415</v>
+        <v>0.02052716724574566</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.008575426414608955</v>
+        <v>0.01487406808882952</v>
       </c>
       <c r="R8" t="n">
-        <v>0.008623700588941574</v>
+        <v>0.001206580665893853</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0003801293205469847</v>
+        <v>0.002760231029242277</v>
       </c>
       <c r="T8" t="n">
-        <v>0.003661438822746277</v>
+        <v>0.01444163080304861</v>
       </c>
       <c r="U8" t="n">
-        <v>0.002693809801712632</v>
+        <v>0.004669232293963432</v>
       </c>
       <c r="V8" t="n">
-        <v>0.008841997943818569</v>
+        <v>0.001202794373966753</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01210628729313612</v>
+        <v>0.01193823665380478</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001973338425159454</v>
+        <v>0.006501834373921156</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001859938725829124</v>
+        <v>0.0007627367740496993</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0008591444347985089</v>
+        <v>0.0008920172112993896</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.001852777553722262</v>
+        <v>0.005025433842092752</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.004013619385659695</v>
+        <v>0.003744017798453569</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0006676926277577877</v>
+        <v>0.01061399467289448</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.001461382023990154</v>
+        <v>0.003827516920864582</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.005265157669782639</v>
+        <v>0.005067658610641956</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.001534488750621676</v>
+        <v>0.006035967264324427</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.001598557224497199</v>
+        <v>0.001322427531704307</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0004642201820388436</v>
+        <v>0.00407470902428031</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.003214997705072165</v>
+        <v>0.001788950874470174</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.002386240754276514</v>
+        <v>0.00292293424718082</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.003852119203656912</v>
+        <v>0.009264509193599224</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.002941156504675746</v>
+        <v>0.00845333281904459</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.00430607981979847</v>
+        <v>0.0006812301580794156</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0002459356910549104</v>
+        <v>0.004027975257486105</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.004768440499901772</v>
+        <v>0.001093321130611002</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0002008431329159066</v>
+        <v>0.0005429822485893965</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.002436000853776932</v>
+        <v>0.004832725040614605</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.002119267359375954</v>
+        <v>0.00398799916729331</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0008279966423287988</v>
+        <v>0.003683775430545211</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.005936697125434875</v>
+        <v>0.01032352447509766</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.01521013677120209</v>
+        <v>0.04392963647842407</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.01512229070067406</v>
+        <v>0.003445244859904051</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0006974235293455422</v>
+        <v>0.009557786397635937</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.004550951533019543</v>
+        <v>0.008529610000550747</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.01120949443429708</v>
+        <v>0.005186780821532011</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.001314357505179942</v>
+        <v>0.005871804896742105</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.006152695044875145</v>
+        <v>0.009976409375667572</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.001238214783370495</v>
+        <v>0.003338404465466738</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0003597309114411473</v>
+        <v>0.007508560549467802</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.001759841223247349</v>
+        <v>0.005113799124956131</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.008264230564236641</v>
+        <v>0.01080427784472704</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.008603595197200775</v>
+        <v>0.002171321772038937</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.01034592371433973</v>
+        <v>0.01790737174451351</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.008326899260282516</v>
+        <v>0.0005207374924793839</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0008734826697036624</v>
+        <v>0.009214025922119617</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.00574280833825469</v>
+        <v>0.01291374117136002</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.0005889739841222763</v>
+        <v>0.003754380159080029</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.004270717035979033</v>
+        <v>0.0005321080097928643</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0003419477725401521</v>
+        <v>0.01061334647238255</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.009263690561056137</v>
+        <v>0.002454777946695685</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.005073371808975935</v>
+        <v>0.01584034785628319</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.006136939860880375</v>
+        <v>0.01867745257914066</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.002048676833510399</v>
+        <v>0.003118916880339384</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0004804586060345173</v>
+        <v>0.005002615507692099</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.0001037515758071095</v>
+        <v>0.008765451610088348</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.0002290206321049482</v>
+        <v>0.001961428439244628</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.003796087810769677</v>
+        <v>0.003327514044940472</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.008066799491643906</v>
+        <v>0.0201238077133894</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.001157036749646068</v>
+        <v>0.00736425444483757</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.001265257364138961</v>
+        <v>0.0038900061044842</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.004528460092842579</v>
+        <v>0.0009307037107646465</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.005466605070978403</v>
+        <v>0.0001101544403354637</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.003246327396482229</v>
+        <v>0.004528291989117861</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.003347916295751929</v>
+        <v>0.007961783558130264</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.000516479485668242</v>
+        <v>0.00239044614136219</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.006144028622657061</v>
+        <v>0.0009661887306720018</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.006046529859304428</v>
+        <v>0.009080036543309689</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.003528085304424167</v>
+        <v>0.003783015068620443</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.002278241794556379</v>
+        <v>0.004816869739443064</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.00122367637231946</v>
+        <v>0.000849310599733144</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.001245091902092099</v>
+        <v>0.001534913550131023</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.002628241665661335</v>
+        <v>0.003828268265351653</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.00280926376581192</v>
+        <v>0.0008959355764091015</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.001774440286681056</v>
+        <v>0.002737559843808413</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.002480058930814266</v>
+        <v>0.01653129048645496</v>
       </c>
       <c r="CN8" t="n">
-        <v>2.257083542644978e-05</v>
+        <v>0.01475517544895411</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.004370329901576042</v>
+        <v>0.0009821975836530328</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0001292522065341473</v>
+        <v>0.005925466306507587</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.001924458774738014</v>
+        <v>0.01482556201517582</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.005083055701106787</v>
+        <v>8.820340735837817e-05</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.005006574094295502</v>
+        <v>0.003564458806067705</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.006140828132629395</v>
+        <v>0.002002615015953779</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.004635663703083992</v>
+        <v>0.0004397220036480576</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.005748831201344728</v>
+        <v>0.002235643099993467</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.005039969924837351</v>
+        <v>0.007877793163061142</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.003426214680075645</v>
+        <v>0.004117077216506004</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.001898208633065224</v>
+        <v>0.00801919586956501</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.001624527387320995</v>
+        <v>0.001428337534889579</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.001750458381138742</v>
+        <v>0.001789203146472573</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.001098153181374073</v>
+        <v>0.00510248402133584</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.00183173839468509</v>
+        <v>0.001080669229850173</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.002890161937102675</v>
+        <v>0.00222674710676074</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.004564304836094379</v>
+        <v>0.01082323491573334</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.01076792273670435</v>
+        <v>0.02046989649534225</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.008230218663811684</v>
+        <v>0.003092572558671236</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.002016259822994471</v>
+        <v>0.01291760616004467</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.004608437418937683</v>
+        <v>8.984701707959175e-06</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.005303605459630489</v>
+        <v>0.002049885224550962</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.001648372737690806</v>
+        <v>0.01206556148827076</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.007467121817171574</v>
+        <v>0.004854641854763031</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.000970967928878963</v>
+        <v>0.005178837105631828</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.005241965875029564</v>
+        <v>0.002800597110763192</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.00669582188129425</v>
+        <v>0.003887638915330172</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.005458641797304153</v>
+        <v>0.004344974178820848</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.003307079197838902</v>
+        <v>0.002059477381408215</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.00610581086948514</v>
+        <v>0.00180246657691896</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.00541811203584075</v>
+        <v>0.003133918158710003</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.005310644395649433</v>
+        <v>0.00224382895976305</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.000554014288354665</v>
+        <v>0.003618279937654734</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0004542795359157026</v>
+        <v>0.005678418092429638</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.002231111982837319</v>
+        <v>0.001514633186161518</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.0002957751275971532</v>
+        <v>0.003008423605933785</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.005391283892095089</v>
+        <v>0.006243413314223289</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.002310201292857528</v>
+        <v>0.009099687449634075</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.003349290229380131</v>
+        <v>0.006025618873536587</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.004581951070576906</v>
+        <v>0.005088955163955688</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.001267202664166689</v>
+        <v>0.002795018255710602</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.00552297243848443</v>
+        <v>0.000720833835657686</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.002191029256209731</v>
+        <v>0.001761699561029673</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.007821875624358654</v>
+        <v>0.00591711001470685</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.001280209980905056</v>
+        <v>0.0004284465103410184</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.004107110667973757</v>
+        <v>0.001672312617301941</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.00673154229298234</v>
+        <v>0.01024593971669674</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.00893993116915226</v>
+        <v>0.0007315700058825314</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.01234345138072968</v>
+        <v>0.00227897334843874</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.001094788545742631</v>
+        <v>0.005718585103750229</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.0006500352174043655</v>
+        <v>0.00189788278657943</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.001944464864209294</v>
+        <v>0.0008525619050487876</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.002100110054016113</v>
+        <v>0.007104464806616306</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.005868357606232166</v>
+        <v>0.002722292440012097</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.003563050180673599</v>
+        <v>0.006077069323509932</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.001981241162866354</v>
+        <v>0.00575184216722846</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.001483417931012809</v>
+        <v>0.004597282502800226</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.003130944445729256</v>
+        <v>0.001775983022525907</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.003875074908137321</v>
+        <v>0.004597592633217573</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.002546022646129131</v>
+        <v>0.003948372788727283</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.001377269276417792</v>
+        <v>0.002769257640466094</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.005894681438803673</v>
+        <v>0.001936646527610719</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.003946426324546337</v>
+        <v>0.007235286757349968</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.003312555840238929</v>
+        <v>0.002467634622007608</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.002419519471004605</v>
+        <v>0.005464702844619751</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.0008685392676852643</v>
+        <v>0.00207722932100296</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.000711013562977314</v>
+        <v>0.00161929230671376</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.001435958547517657</v>
+        <v>0.005490787792950869</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.001603513024747372</v>
+        <v>0.001856385730206966</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.002469929633662105</v>
+        <v>0.00309819052927196</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.006720034405589104</v>
+        <v>0.006573956925421953</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.0008624584879726171</v>
+        <v>0.009398838505148888</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.0007748224306851625</v>
+        <v>0.007175484672188759</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.001591947162523866</v>
+        <v>0.003671058919280767</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.001759160892106593</v>
+        <v>0.004459508694708347</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.005912014748901129</v>
+        <v>0.001311143976636231</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.003439691383391619</v>
+        <v>0.0007546539418399334</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.004836302250623703</v>
+        <v>0.002195666776970029</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.003978823311626911</v>
+        <v>0.005531944334506989</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.00598139688372612</v>
+        <v>0.006817142013460398</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.005219961516559124</v>
+        <v>0.0046324054710567</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.006716995034366846</v>
+        <v>0.001880104653537273</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.005169681739062071</v>
+        <v>0.01505956426262856</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.002111463574692607</v>
+        <v>0.01407877914607525</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.0007263828301802278</v>
+        <v>0.006088698748499155</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.003300669603049755</v>
+        <v>0.005059945862740278</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.003993502818048</v>
+        <v>0.005836235359311104</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.001596936490386724</v>
+        <v>0.002383790910243988</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.007984769530594349</v>
+        <v>0.009420793503522873</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.002711639273911715</v>
+        <v>0.008539561182260513</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.0001159005332738161</v>
+        <v>0.0002502181159798056</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0006764793070033193</v>
+        <v>0.01019492466002703</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.009571108967065811</v>
+        <v>0.003279958385974169</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.002218948910012841</v>
+        <v>0.004470141604542732</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.003126294352114201</v>
+        <v>0.0111958822235465</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.0009560781763866544</v>
+        <v>0.01192291546612978</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.00128236529417336</v>
+        <v>0.002873700577765703</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.003545641433447599</v>
+        <v>0.01998426206409931</v>
       </c>
       <c r="B9" t="n">
-        <v>0.001873982953839004</v>
+        <v>0.07634875178337097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03112040460109711</v>
+        <v>0.01036971528083086</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001870102249085903</v>
+        <v>0.01105710491538048</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005975964944809675</v>
+        <v>0.01911376416683197</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005207402165979147</v>
+        <v>0.007541230414062738</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003195700934156775</v>
+        <v>0.01134688965976238</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01863624341785908</v>
+        <v>0.005827587563544512</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008717588149011135</v>
+        <v>0.04416980594396591</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002058940706774592</v>
+        <v>0.02403829246759415</v>
       </c>
       <c r="K9" t="n">
-        <v>0.009153869934380054</v>
+        <v>0.06003542989492416</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02941014617681503</v>
+        <v>0.01165700331330299</v>
       </c>
       <c r="M9" t="n">
-        <v>0.007669375743716955</v>
+        <v>0.01765034161508083</v>
       </c>
       <c r="N9" t="n">
-        <v>0.003917615860700607</v>
+        <v>0.02669822797179222</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006970242597162724</v>
+        <v>0.01714107394218445</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001161416410468519</v>
+        <v>0.003907773178070784</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02143240161240101</v>
+        <v>0.005425662267953157</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01215754915028811</v>
+        <v>0.03384135663509369</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0009793282952159643</v>
+        <v>0.001978971995413303</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01101163402199745</v>
+        <v>0.01344809401780367</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001985602546483278</v>
+        <v>0.0002436311333440244</v>
       </c>
       <c r="V9" t="n">
-        <v>0.000717291550245136</v>
+        <v>0.006837354507297277</v>
       </c>
       <c r="W9" t="n">
-        <v>0.003834884380921721</v>
+        <v>0.006709367036819458</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0005777664482593536</v>
+        <v>0.005206510424613953</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.002755520166829228</v>
+        <v>0.006167396437376738</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.009629051201045513</v>
+        <v>0.0003721484681591392</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.002241420559585094</v>
+        <v>0.009693533182144165</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0008425811538472772</v>
+        <v>0.01205255277454853</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0008860297966748476</v>
+        <v>0.01143915578722954</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0007205032743513584</v>
+        <v>0.005675937980413437</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0028004115447402</v>
+        <v>0.003922640811651945</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.005051079206168652</v>
+        <v>0.003059232607483864</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.003036524169147015</v>
+        <v>0.01066314056515694</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.004689868539571762</v>
+        <v>0.00243427837267518</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.003850840497761965</v>
+        <v>0.0119320061057806</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.008089151233434677</v>
+        <v>0.001593943685293198</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.001559553667902946</v>
+        <v>0.009771102108061314</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.004704636987298727</v>
+        <v>0.009441862814128399</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.005756063386797905</v>
+        <v>0.003398334141820669</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.0003503291518427432</v>
+        <v>0.001234224066138268</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.005794743075966835</v>
+        <v>0.00240776315331459</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.003121214685961604</v>
+        <v>0.004567997995764017</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0003527439839672297</v>
+        <v>0.00590391643345356</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.004163917619735003</v>
+        <v>0.004234996624290943</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.0007304142345674336</v>
+        <v>0.004510417580604553</v>
       </c>
       <c r="AT9" t="n">
-        <v>6.366567686200142e-05</v>
+        <v>0.005322366952896118</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.001605677185580134</v>
+        <v>0.05070935934782028</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.01355542056262493</v>
+        <v>0.007348994258791208</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.005985825788229704</v>
+        <v>0.001799012068659067</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.005363464821130037</v>
+        <v>0.0005949684418737888</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.001331062987446785</v>
+        <v>0.007923385128378868</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.0001410634140484035</v>
+        <v>0.0156291089951992</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.002698465250432491</v>
+        <v>0.0100527536123991</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.004549356177449226</v>
+        <v>0.01274232566356659</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.001154214609414339</v>
+        <v>0.005354986526072025</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.001647755270823836</v>
+        <v>0.0197868999093771</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.008453729562461376</v>
+        <v>0.01078800577670336</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.003630113787949085</v>
+        <v>0.0009634171146899462</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.01105468533933163</v>
+        <v>0.02183657884597778</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.003542606020346284</v>
+        <v>0.01009705662727356</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.00192980223800987</v>
+        <v>0.005590089596807957</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.0134982168674469</v>
+        <v>0.002784907352179289</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.002076883567497134</v>
+        <v>0.01548516005277634</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.0004292587982490659</v>
+        <v>0.01076921913772821</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.002686181105673313</v>
+        <v>0.001007459126412868</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.005493957549333572</v>
+        <v>0.000474005239084363</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.000122822675621137</v>
+        <v>0.01108911633491516</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.003513490548357368</v>
+        <v>0.01960361748933792</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.00246645393781364</v>
+        <v>0.01345547940582037</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.001397923566401005</v>
+        <v>0.0007890393026173115</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.006533944979310036</v>
+        <v>0.00370684964582324</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.00404886482283473</v>
+        <v>0.003977391868829727</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.001921368995681405</v>
+        <v>0.005474984645843506</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.002015802077949047</v>
+        <v>0.02957429923117161</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.01090015843510628</v>
+        <v>0.007656747009605169</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0008143352461047471</v>
+        <v>0.004854508209973574</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.0003188697737641633</v>
+        <v>5.229492671787739e-05</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.002182190073654056</v>
+        <v>0.001839156728237867</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.0003729907621163875</v>
+        <v>0.002636053366586566</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.005383857991546392</v>
+        <v>0.006164058111608028</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.002700566546991467</v>
+        <v>0.0110095888376236</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.002678371267393231</v>
+        <v>0.001491131144575775</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.001784619642421603</v>
+        <v>0.01383442711085081</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.005696181207895279</v>
+        <v>0.000449927116278559</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.0004280505527276546</v>
+        <v>6.562685302924365e-05</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.000503799004945904</v>
+        <v>0.000163853052072227</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.001174681005068123</v>
+        <v>0.0008470200700685382</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.002119776792824268</v>
+        <v>0.0006871827645227313</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.002315644407644868</v>
+        <v>0.0008699552272446454</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.001911790343001485</v>
+        <v>0.01096388325095177</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.001184705179184675</v>
+        <v>0.02222337014973164</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.005009725224226713</v>
+        <v>0.01857859268784523</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.0003692794125527143</v>
+        <v>9.049367508850992e-05</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.002014836296439171</v>
+        <v>0.005147735122591257</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.005005175247788429</v>
+        <v>0.003260432044044137</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.004777430556714535</v>
+        <v>0.004372305236756802</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.002596029080450535</v>
+        <v>0.01078728213906288</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.005178289022296667</v>
+        <v>0.01759573072195053</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.007949318736791611</v>
+        <v>0.0007395280990749598</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.003273730864748359</v>
+        <v>0.001126446295529604</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.0006803729920648038</v>
+        <v>0.01292860880494118</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.006438439711928368</v>
+        <v>0.001722127315588295</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.0002444704296067357</v>
+        <v>0.0006979943718761206</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.00362293072976172</v>
+        <v>2.137711271643639e-05</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.0006574389990419149</v>
+        <v>0.001118973828852177</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.001658667693845928</v>
+        <v>0.0003086599172092974</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.001878702896647155</v>
+        <v>0.001004850375466049</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.000289691670332104</v>
+        <v>0.007685514632612467</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.000596433412283659</v>
+        <v>0.001436141319572926</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.002611871575936675</v>
+        <v>0.006887139286845922</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.003006631508469582</v>
+        <v>0.006419511046260595</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.008614026941359043</v>
+        <v>0.008699364028871059</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.004466778133064508</v>
+        <v>0.001390301389619708</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.001975329127162695</v>
+        <v>0.009112648665904999</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.001462382380850613</v>
+        <v>0.009488627314567566</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.002981499070301652</v>
+        <v>0.0003254357725381851</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.001538948272354901</v>
+        <v>0.008992810733616352</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.0005325410747900605</v>
+        <v>0.000580803956836462</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.002324835164472461</v>
+        <v>0.001739816390909255</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.001337073976173997</v>
+        <v>0.0083845229819417</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.0003194665187038481</v>
+        <v>0.001164932735264301</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.003618378425016999</v>
+        <v>0.001980317523702979</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.002276317914947867</v>
+        <v>0.0008410736336372793</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.0001111263991333544</v>
+        <v>0.0102715352550149</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.004429981578141451</v>
+        <v>0.00142950308509171</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.002890846226364374</v>
+        <v>0.003916030749678612</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.002700700890272856</v>
+        <v>0.00160312233492732</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.0008319495827890933</v>
+        <v>0.005538341589272022</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.00119228265248239</v>
+        <v>0.001327333855442703</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.002571395598351955</v>
+        <v>7.036863826215267e-05</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.001506175496615469</v>
+        <v>0.00401149271056056</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.001210812828503549</v>
+        <v>0.0005084255244582891</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.002045869594439864</v>
+        <v>0.002900591120123863</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.005838997662067413</v>
+        <v>0.01401713211089373</v>
       </c>
       <c r="EE9" t="n">
-        <v>0.0006856850814074278</v>
+        <v>0.0004469472914934158</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.002432049252092838</v>
+        <v>0.003455323865637183</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.001937544904649258</v>
+        <v>0.008242848329246044</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.004748236387968063</v>
+        <v>0.00206020288169384</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.0002196833956986666</v>
+        <v>0.006222520489245653</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.001734177232719958</v>
+        <v>0.0005028607556596398</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.001174160628579557</v>
+        <v>0.002214728854596615</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.0009553201380185783</v>
+        <v>0.006752031855285168</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.004109027795493603</v>
+        <v>0.0001468624686822295</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.002432820620015264</v>
+        <v>0.01132896728813648</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.002914481796324253</v>
+        <v>0.00555247999727726</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.001295014284551144</v>
+        <v>0.01106789708137512</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.0007014719303697348</v>
+        <v>0.004182673990726471</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.003411292098462582</v>
+        <v>0.0002115657553076744</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.00153207837138325</v>
+        <v>0.00240369257517159</v>
       </c>
       <c r="ET9" t="n">
-        <v>0.002346434397622943</v>
+        <v>0.01022184174507856</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.001577418763190508</v>
+        <v>0.004579993430525064</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.000831017445307225</v>
+        <v>0.005194099619984627</v>
       </c>
       <c r="EW9" t="n">
-        <v>0.005917666479945183</v>
+        <v>0.000666059204377234</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.001814117073081434</v>
+        <v>0.0005500853294506669</v>
       </c>
       <c r="EY9" t="n">
-        <v>7.115816697478294e-05</v>
+        <v>0.01432898547500372</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.006368593778461218</v>
+        <v>0.0004269314522389323</v>
       </c>
       <c r="FA9" t="n">
-        <v>0.0007592963520437479</v>
+        <v>0.0005052013439126313</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.00272132596001029</v>
+        <v>0.001721409964375198</v>
       </c>
       <c r="FC9" t="n">
-        <v>0.0007870033732615411</v>
+        <v>0.00226501701399684</v>
       </c>
       <c r="FD9" t="n">
-        <v>0.001454636454582214</v>
+        <v>0.0003761182306334376</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.003091050079092383</v>
+        <v>0.002933572744950652</v>
       </c>
       <c r="FF9" t="n">
-        <v>0.001126908697187901</v>
+        <v>0.007015392649918795</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.005210284143686295</v>
+        <v>0.0004924550885334611</v>
       </c>
       <c r="FH9" t="n">
-        <v>0.0001134788617491722</v>
+        <v>0.008383888751268387</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.007710717618465424</v>
+        <v>0.004834802821278572</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.002029089257121086</v>
+        <v>0.006689074449241161</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.0001992303295992315</v>
+        <v>0.00606954051181674</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.007410082500427961</v>
+        <v>0.004775943234562874</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.005783325992524624</v>
+        <v>0.002575150225311518</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.0006603567744605243</v>
+        <v>0.001752102049067616</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.001983545487746596</v>
+        <v>0.004066433291882277</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.01095871441066265</v>
+        <v>0.007664856966584921</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.006860200315713882</v>
+        <v>0.01485299039632082</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.008010422810912132</v>
+        <v>0.001617105910554528</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.003988875541836023</v>
+        <v>0.003866688115522265</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.004227002151310444</v>
+        <v>0.00194057053886354</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.003182459156960249</v>
+        <v>0.001604400691576302</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.003601366886869073</v>
+        <v>0.01312229223549366</v>
       </c>
       <c r="FW9" t="n">
-        <v>5.416193744167686e-05</v>
+        <v>0.01472056098282337</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.006747888401150703</v>
+        <v>0.006538316607475281</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.00322283711284399</v>
+        <v>0.01246759574860334</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.000374240567907691</v>
+        <v>0.005290868226438761</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.00104026694316417</v>
+        <v>0.005568495951592922</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.004668961744755507</v>
+        <v>0.007213969249278307</v>
       </c>
       <c r="GC9" t="n">
-        <v>2.474011853337288e-05</v>
+        <v>0.01166691537946463</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.00746171036735177</v>
+        <v>0.00988200306892395</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.001918538473546505</v>
+        <v>0.01102328859269619</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.001791871851310134</v>
+        <v>0.01240583322942257</v>
       </c>
       <c r="GG9" t="n">
-        <v>0.00310530187562108</v>
+        <v>0.00234663556329906</v>
       </c>
     </row>
     <row r="10">
@@ -6125,2278 +6125,2278 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01570321060717106</v>
+        <v>0.088435098528862</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08114470541477203</v>
+        <v>0.8916751742362976</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3988119959831238</v>
+        <v>0.7573051452636719</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0231897234916687</v>
+        <v>0.3312286138534546</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2298645973205566</v>
+        <v>0.2099039554595947</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3132548034191132</v>
+        <v>0.1365602910518646</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0495009534060955</v>
+        <v>0.2032173573970795</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04074765741825104</v>
+        <v>0.1227013021707535</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09732861071825027</v>
+        <v>0.3958770632743835</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0353461280465126</v>
+        <v>0.2006846368312836</v>
       </c>
       <c r="K11" t="n">
-        <v>0.109783947467804</v>
+        <v>0.6999743580818176</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4039341807365417</v>
+        <v>0.6932139992713928</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08745328336954117</v>
+        <v>0.4416895508766174</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1853433549404144</v>
+        <v>0.7111559510231018</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3270409107208252</v>
+        <v>0.2699916660785675</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05112801119685173</v>
+        <v>0.01694869995117188</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004844101145863533</v>
+        <v>0.04623906314373016</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1823054850101471</v>
+        <v>0.310087651014328</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02166791260242462</v>
+        <v>0.01456266175955534</v>
       </c>
       <c r="T11" t="n">
-        <v>0.05742854997515678</v>
+        <v>0.09760099649429321</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0445486418902874</v>
+        <v>0.07389794290065765</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01152585260570049</v>
+        <v>0.1813606023788452</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03065047413110733</v>
+        <v>0.002290621399879456</v>
       </c>
       <c r="X11" t="n">
-        <v>0.07609792053699493</v>
+        <v>0.06288929283618927</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.06325484067201614</v>
+        <v>0.004862808156758547</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.09505370259284973</v>
+        <v>0.05449917167425156</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.03854482248425484</v>
+        <v>0.1343504786491394</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.03391867876052856</v>
+        <v>0.04732516407966614</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1594645529985428</v>
+        <v>0.2542881667613983</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.002374717034399509</v>
+        <v>0.02267815172672272</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.00568719208240509</v>
+        <v>0.07311035692691803</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.2012913972139359</v>
+        <v>0.2935304343700409</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.01492974348366261</v>
+        <v>0.180426150560379</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.05609990656375885</v>
+        <v>0.04947018623352051</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.1213320791721344</v>
+        <v>0.2040415555238724</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.1470566838979721</v>
+        <v>0.004792877472937107</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.006882885936647654</v>
+        <v>0.04584190249443054</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.03945502638816833</v>
+        <v>0.3421925604343414</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.1088700890541077</v>
+        <v>0.05882570520043373</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.02992964722216129</v>
+        <v>0.03409725055098534</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.02160639688372612</v>
+        <v>0.003768936265259981</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.07511679828166962</v>
+        <v>0.1957720220088959</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.02895953692495823</v>
+        <v>0.05994898825883865</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.002111912705004215</v>
+        <v>0.1349697262048721</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.03084666281938553</v>
+        <v>0.1456124633550644</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.04700163751840591</v>
+        <v>0.1549188494682312</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.0001311115920543671</v>
+        <v>0.6671390533447266</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.1940445303916931</v>
+        <v>0.3621934652328491</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.07431140542030334</v>
+        <v>0.01883494853973389</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1011391058564186</v>
+        <v>0.2600140869617462</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.06747420877218246</v>
+        <v>0.2097503542900085</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.01338369492441416</v>
+        <v>0.03261479735374451</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0004913210868835449</v>
+        <v>0.08539937436580658</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.02531254477798939</v>
+        <v>0.1195805743336678</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.03510598093271255</v>
+        <v>0.0304252989590168</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.05142919346690178</v>
+        <v>0.131457507610321</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.0293156486004591</v>
+        <v>0.2520756721496582</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.01453017815947533</v>
+        <v>0.3046805858612061</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.2591309249401093</v>
+        <v>0.6729714870452881</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.09930289536714554</v>
+        <v>0.1507252603769302</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.05442309379577637</v>
+        <v>0.02363672479987144</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.02472500875592232</v>
+        <v>0.17696513235569</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.04078704491257668</v>
+        <v>0.1096611842513084</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.02291819453239441</v>
+        <v>0.2289341390132904</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.03198940306901932</v>
+        <v>0.1363718211650848</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.04688351228833199</v>
+        <v>0.125138059258461</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.05428779125213623</v>
+        <v>0.07394221425056458</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.05665996298193932</v>
+        <v>0.2857711017131805</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.01924595050513744</v>
+        <v>0.1661810576915741</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.006560316309332848</v>
+        <v>0.1886033713817596</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.0812290757894516</v>
+        <v>0.002013008110225201</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.03702870011329651</v>
+        <v>0.185329258441925</v>
       </c>
       <c r="BU11" t="n">
-        <v>6.141234189271927e-05</v>
+        <v>0.07743279635906219</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.06195419654250145</v>
+        <v>0.2316778302192688</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.1283329278230667</v>
+        <v>0.4213011264801025</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.001385156065225601</v>
+        <v>0.03769047185778618</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.06734739243984222</v>
+        <v>0.05859482660889626</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.1759812235832214</v>
+        <v>0.08062558621168137</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.0184068214148283</v>
+        <v>0.1012281253933907</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.01231557317078114</v>
+        <v>0.05263250693678856</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.0288479570299387</v>
+        <v>0.01380965299904346</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.00585323479026556</v>
+        <v>0.01332512870430946</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.009831010363996029</v>
+        <v>0.1876080632209778</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.06947790086269379</v>
+        <v>0.0653170719742775</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.02071089670062065</v>
+        <v>0.1426530182361603</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.02142636105418205</v>
+        <v>0.05313464254140854</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.05962760746479034</v>
+        <v>0.04677149653434753</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.0095719825476408</v>
+        <v>0.02438976988196373</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.0001185378059744835</v>
+        <v>0.07523840665817261</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.009857010096311569</v>
+        <v>0.1391625851392746</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.06315723061561584</v>
+        <v>0.2568032145500183</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.001018498092889786</v>
+        <v>0.05776631832122803</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.1059265434741974</v>
+        <v>0.01805334538221359</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.03603284060955048</v>
+        <v>0.2121564149856567</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.1308643668889999</v>
+        <v>0.2487082928419113</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.04381924122571945</v>
+        <v>0.126150369644165</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.02191277779638767</v>
+        <v>0.112414076924324</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.009462003596127033</v>
+        <v>0.0262702964246273</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.1046529710292816</v>
+        <v>0.004898899234831333</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.001737717539072037</v>
+        <v>0.03826592862606049</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.009977987036108971</v>
+        <v>0.132415696978569</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.06296463310718536</v>
+        <v>0.06088648363947868</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.0294613316655159</v>
+        <v>0.1066724061965942</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.07249690592288971</v>
+        <v>0.03676606714725494</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.04827706143260002</v>
+        <v>0.04591641947627068</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.0087128896266222</v>
+        <v>0.01465154625475407</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.02271664515137672</v>
+        <v>0.06213361024856567</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.009201528504490852</v>
+        <v>0.1707697957754135</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.02382265031337738</v>
+        <v>0.1381375938653946</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.06008952856063843</v>
+        <v>0.1381270289421082</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.03730426728725433</v>
+        <v>0.009530536830425262</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.05919348448514938</v>
+        <v>0.2152276039123535</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.09733957052230835</v>
+        <v>0.1917528957128525</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.01215857733041048</v>
+        <v>0.02970944344997406</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.03113739937543869</v>
+        <v>0.01731787621974945</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.1235925629734993</v>
+        <v>0.1083799079060555</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.002248037606477737</v>
+        <v>0.06079533323645592</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.0228757206350565</v>
+        <v>0.03845728561282158</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.02530115097761154</v>
+        <v>0.02156985737383366</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.01275850832462311</v>
+        <v>0.1073613166809082</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.003402797505259514</v>
+        <v>0.1465788632631302</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.01528599020093679</v>
+        <v>0.1479945778846741</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.003791281953454018</v>
+        <v>0.03820781037211418</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.04192136600613594</v>
+        <v>0.1423766016960144</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.03056686744093895</v>
+        <v>0.1522340029478073</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.0374365821480751</v>
+        <v>0.08131760358810425</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.05557418242096901</v>
+        <v>0.09999288618564606</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.02397673018276691</v>
+        <v>0.02543755620718002</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.004637863487005234</v>
+        <v>0.04621727019548416</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.06825607270002365</v>
+        <v>0.0791490226984024</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.03132821246981621</v>
+        <v>0.09376154839992523</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.02638985961675644</v>
+        <v>0.2802650630474091</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.05603383108973503</v>
+        <v>0.01739141717553139</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.01964292675256729</v>
+        <v>0.008438372053205967</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.007547289133071899</v>
+        <v>0.06823921203613281</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.002117080613970757</v>
+        <v>0.003063610289245844</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.05727531388401985</v>
+        <v>0.0775047168135643</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.07993151247501373</v>
+        <v>0.08607800304889679</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.03047759458422661</v>
+        <v>0.05292937904596329</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.09608857333660126</v>
+        <v>0.1091387271881104</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.08460235595703125</v>
+        <v>0.000465495279058814</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.02338414080440998</v>
+        <v>0.1364296078681946</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.0001039763446897268</v>
+        <v>0.08940383791923523</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.04523245990276337</v>
+        <v>0.1739387810230255</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.03263020515441895</v>
+        <v>0.03373361378908157</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.05889632552862167</v>
+        <v>0.1182961463928223</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.004859497770667076</v>
+        <v>0.06053688377141953</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.02566612511873245</v>
+        <v>0.06686276197433472</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.004314863122999668</v>
+        <v>0.04180433973670006</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.009839260950684547</v>
+        <v>0.1116486489772797</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.03793798387050629</v>
+        <v>0.1653341799974442</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.05082833394408226</v>
+        <v>0.0704343393445015</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.08841759711503983</v>
+        <v>0.3515022099018097</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.01715332828462124</v>
+        <v>0.01222024857997894</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.00151308870408684</v>
+        <v>0.1355529874563217</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.06727052479982376</v>
+        <v>0.05308847874403</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.02532774209976196</v>
+        <v>0.1313017457723618</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.06171200796961784</v>
+        <v>0.07490745931863785</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.04292024672031403</v>
+        <v>0.01214241143316031</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.008372271433472633</v>
+        <v>0.01329905539751053</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.01045712828636169</v>
+        <v>0.1160469576716423</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.0002418217482045293</v>
+        <v>0.1102082505822182</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.02308314666152</v>
+        <v>0.08376200497150421</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.02571598254144192</v>
+        <v>0.1418160498142242</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.08423513174057007</v>
+        <v>0.1854183077812195</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.03696014732122421</v>
+        <v>0.005983561277389526</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.01269836537539959</v>
+        <v>0.2019547671079636</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.03726042807102203</v>
+        <v>0.04320807009935379</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.1006780862808228</v>
+        <v>0.1605877280235291</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.0272204726934433</v>
+        <v>0.1071725636720657</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.006330303847789764</v>
+        <v>0.1090638041496277</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.1839884221553802</v>
+        <v>0.004149392247200012</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.1062948703765869</v>
+        <v>0.1437287032604218</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.116105929017067</v>
+        <v>0.2950272560119629</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.06100185588002205</v>
+        <v>0.1876003444194794</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.07527549564838409</v>
+        <v>0.001220013946294785</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.1363175213336945</v>
+        <v>0.03043168038129807</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.01599040441215038</v>
+        <v>0.1744626462459564</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.0485977865755558</v>
+        <v>0.1828101575374603</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.04465794563293457</v>
+        <v>0.04834791272878647</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.01526721473783255</v>
+        <v>0.1499404311180115</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.05345466732978821</v>
+        <v>0.03553764894604683</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.06341663748025894</v>
+        <v>0.03584712743759155</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.002076231176033616</v>
+        <v>0.2561672031879425</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.0380873940885067</v>
+        <v>0.05124550312757492</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.009866425767540932</v>
+        <v>0.3023892939090729</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.02274995669722557</v>
+        <v>0.1050197705626488</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.1152206212282181</v>
+        <v>0.4624808430671692</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.04028383642435074</v>
+        <v>0.04136498272418976</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.009229781106114388</v>
+        <v>0.0001631181658012792</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0312729999423027</v>
+        <v>0.001889335573650897</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04802093282341957</v>
+        <v>0.0001668090262683108</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08335050940513611</v>
+        <v>0.0006202576332725585</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00551363080739975</v>
+        <v>0.0005062422133050859</v>
       </c>
       <c r="F12" t="n">
-        <v>0.258066713809967</v>
+        <v>0.0008933903882279992</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05066651850938797</v>
+        <v>2.122368096024729e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1967175155878067</v>
+        <v>0.0005238043959252536</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06893011927604675</v>
+        <v>3.937230758310761e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01324937772005796</v>
+        <v>0.0003159629413858056</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01247389800846577</v>
+        <v>0.001763940206728876</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04953864961862564</v>
+        <v>2.487436540832277e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.07836701720952988</v>
+        <v>0.0003787704044952989</v>
       </c>
       <c r="N12" t="n">
-        <v>0.05235361307859421</v>
+        <v>6.062746251700446e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2266694605350494</v>
+        <v>0.0009548652451485395</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01810078136622906</v>
+        <v>4.206172889098525e-06</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2040732502937317</v>
+        <v>0.000162035139510408</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1271948218345642</v>
+        <v>6.340137770166621e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03749003633856773</v>
+        <v>5.778417107649148e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03075888752937317</v>
+        <v>0.0001470395072828978</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01293033827096224</v>
+        <v>7.867005479056388e-05</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0383535660803318</v>
+        <v>0.0002334041200811043</v>
       </c>
       <c r="W12" t="n">
-        <v>0.04571050032973289</v>
+        <v>0.0001604351418791339</v>
       </c>
       <c r="X12" t="n">
-        <v>0.03999197855591774</v>
+        <v>2.668241540959571e-05</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.03308131545782089</v>
+        <v>4.063694359501824e-05</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.02550813369452953</v>
+        <v>0.0001636910455999896</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.00204429286532104</v>
+        <v>5.545915337279439e-05</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.008699125610291958</v>
+        <v>2.59093358181417e-05</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.006117023527622223</v>
+        <v>6.759794814570341e-06</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.003536582924425602</v>
+        <v>3.052860483876429e-05</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.03389638289809227</v>
+        <v>0.0001341817405773327</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.06940633803606033</v>
+        <v>0.0001374992716591805</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.004926570691168308</v>
+        <v>2.170685183955356e-05</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.07631358504295349</v>
+        <v>4.709996210294776e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.007180727086961269</v>
+        <v>0.0001083903480321169</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.01932487264275551</v>
+        <v>0.0001226260210387409</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.007058112882077694</v>
+        <v>0.000315203593345359</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.01624820381402969</v>
+        <v>0.0001255485694855452</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.04208351299166679</v>
+        <v>2.97851838695351e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.01357324980199337</v>
+        <v>1.8976119463332e-05</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.08293270319700241</v>
+        <v>5.651088213198818e-05</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.04737145453691483</v>
+        <v>0.0002604001783765852</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.007618882693350315</v>
+        <v>5.439535016193986e-05</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.02840171009302139</v>
+        <v>0.0001606038713362068</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.01333559118211269</v>
+        <v>0.0002110010100295767</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.02630236931145191</v>
+        <v>4.611798067344353e-05</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.01218301802873611</v>
+        <v>0.001012469059787691</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.01890728622674942</v>
+        <v>0.0002355398901272565</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.0208688210695982</v>
+        <v>4.383124178275466e-06</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.01612938940525055</v>
+        <v>0.000290874857455492</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.125598818063736</v>
+        <v>0.0004278796259313822</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.002749781124293804</v>
+        <v>7.924743840703741e-05</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.1078640967607498</v>
+        <v>0.0002002502878895029</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.04155302047729492</v>
+        <v>0.000166278550750576</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.005117502063512802</v>
+        <v>3.376138920430094e-05</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.00538513483479619</v>
+        <v>0.000406842038501054</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.02169831469655037</v>
+        <v>0.0004848832322750241</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.06775491684675217</v>
+        <v>7.934165478218347e-05</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.04120320081710815</v>
+        <v>0.0001632343046367168</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.04184335470199585</v>
+        <v>0.0001118674990721047</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.02601850964128971</v>
+        <v>0.0001115993363782763</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.04590711370110512</v>
+        <v>0.0001129989686887711</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.01816695556044579</v>
+        <v>7.634709618287161e-05</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.01474241260439157</v>
+        <v>0.0001267630723305047</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.03056398779153824</v>
+        <v>0.0002111915091518313</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.006289815995842218</v>
+        <v>0.000210797501495108</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.01286007650196552</v>
+        <v>7.818379526725039e-05</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.01787584088742733</v>
+        <v>7.37597729312256e-05</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.02167815901339054</v>
+        <v>4.603511115419678e-05</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.03360948711633682</v>
+        <v>4.865483788307756e-05</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.01000164821743965</v>
+        <v>7.601972902193666e-05</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.01385062094777822</v>
+        <v>0.0002356663899263367</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.0192612037062645</v>
+        <v>3.243096216465347e-05</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.010019451379776</v>
+        <v>0.0006328243762254715</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.006028676871210337</v>
+        <v>0.0001935378677444533</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.01185613684356213</v>
+        <v>3.565770748537034e-05</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.003468975424766541</v>
+        <v>0.0001070861326297745</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.08580935001373291</v>
+        <v>0.0002413707552477717</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.02406854741275311</v>
+        <v>4.260387504473329e-05</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.06599242985248566</v>
+        <v>9.238642815034837e-05</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.02590850740671158</v>
+        <v>8.944071305450052e-05</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.01624414324760437</v>
+        <v>5.237705772742629e-05</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.006906737573444843</v>
+        <v>0.0003552263078745455</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.01282060425728559</v>
+        <v>0.0001334794942522421</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.03472708910703659</v>
+        <v>0.000100217257568147</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.005917539354413748</v>
+        <v>8.533026266377419e-05</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.04400007799267769</v>
+        <v>6.177782779559493e-05</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.01026268396526575</v>
+        <v>9.604453225620091e-05</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.02357188425958157</v>
+        <v>0.0001121832829085179</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.006757550872862339</v>
+        <v>9.568981477059424e-05</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.05550510808825493</v>
+        <v>0.0004060997162014246</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.008978962898254395</v>
+        <v>0.0001427193928975612</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.01766295172274113</v>
+        <v>1.067832999979146e-05</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.0342286229133606</v>
+        <v>0.0002944590232800692</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.07751230150461197</v>
+        <v>0.000269729207502678</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.04292979836463928</v>
+        <v>0.000475928740343079</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.0270459707826376</v>
+        <v>0.0003509453381411731</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.04042233899235725</v>
+        <v>0.0001534642797196284</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.03451057523488998</v>
+        <v>6.687518180115148e-05</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.01735055819153786</v>
+        <v>4.686772808781825e-05</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.01692317984998226</v>
+        <v>0.0003457935526967049</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.01308013033121824</v>
+        <v>0.0001857899769674987</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.02903417497873306</v>
+        <v>0.0001760130107868463</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.01163710653781891</v>
+        <v>6.980042235227302e-05</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.05176666006445885</v>
+        <v>0.0001013039582176134</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.003900780342519283</v>
+        <v>7.840368198230863e-05</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.04002230241894722</v>
+        <v>0.0002136842958861962</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.005518639460206032</v>
+        <v>7.674968219362199e-05</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.05290334671735764</v>
+        <v>0.0001854291040217504</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.06502243131399155</v>
+        <v>0.0001358614681521431</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.004149721469730139</v>
+        <v>1.657517714193091e-05</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.03979941457509995</v>
+        <v>0.0005935899680480361</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.04847100377082825</v>
+        <v>0.0007079532369971275</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.05726982653141022</v>
+        <v>0.0001573245681356639</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.05195794627070427</v>
+        <v>0.0002658727462403476</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.01022115349769592</v>
+        <v>0.0002777804038487375</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.04466418549418449</v>
+        <v>0.0002659239689819515</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.01552106998860836</v>
+        <v>9.680886432761326e-05</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.01679669134318829</v>
+        <v>0.0002035030047409236</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.02132931537926197</v>
+        <v>0.0001132723773480393</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.02660279348492622</v>
+        <v>0.0002021978434640914</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.02262899652123451</v>
+        <v>2.729173320403788e-05</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.02863432094454765</v>
+        <v>0.0001303450844716281</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.01371705159544945</v>
+        <v>7.313933747354895e-05</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.001431028358638287</v>
+        <v>7.107741839718074e-05</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.02198389172554016</v>
+        <v>0.0001051186700351536</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.001208117231726646</v>
+        <v>1.073316525435075e-05</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.00712072616443038</v>
+        <v>8.342448563780636e-05</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.002859428524971008</v>
+        <v>0.000190667255083099</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.02937463857233524</v>
+        <v>2.904977736761793e-05</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.006604444235563278</v>
+        <v>0.0001145925925811753</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.01603863202035427</v>
+        <v>7.418404857162386e-05</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.004545946605503559</v>
+        <v>0.0001109280274249613</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.01250911597162485</v>
+        <v>4.2526371544227e-05</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.01310233771800995</v>
+        <v>0.0001240818237420171</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.05653539299964905</v>
+        <v>0.0002907193847931921</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.01306586991995573</v>
+        <v>0.000389825931051746</v>
       </c>
       <c r="EH12" t="n">
-        <v>1.597224036231637e-05</v>
+        <v>0.0002340539067517966</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.0320705883204937</v>
+        <v>9.900775330606848e-05</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.01649181544780731</v>
+        <v>0.000102222191344481</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.06204804033041</v>
+        <v>8.934622746892273e-05</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.005195117089897394</v>
+        <v>5.137198604643345e-05</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.02738344855606556</v>
+        <v>2.587077506177593e-05</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.004970657639205456</v>
+        <v>3.026127706107218e-05</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.01680698804557323</v>
+        <v>4.475095920497552e-05</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.01851553842425346</v>
+        <v>0.0001681698195170611</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.004828105680644512</v>
+        <v>0.0001980321103474125</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.03427635133266449</v>
+        <v>0.0001700302673270926</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.009439335204660892</v>
+        <v>9.772025805432349e-05</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.002840751316398382</v>
+        <v>0.0002633362601045519</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.02081072703003883</v>
+        <v>0.0001939963258337229</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.0537165068089962</v>
+        <v>0.0004204581491649151</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.01472212001681328</v>
+        <v>7.263838779181242e-05</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.01744321919977665</v>
+        <v>7.955156615935266e-05</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.01698429137468338</v>
+        <v>0.0003238018252886832</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.01670234091579914</v>
+        <v>0.0001497794582974166</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.03529531881213188</v>
+        <v>9.440102439839393e-05</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.01136396080255508</v>
+        <v>7.331310916924849e-05</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.04728829860687256</v>
+        <v>7.212588388938457e-05</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.009688578546047211</v>
+        <v>0.0001129485535784625</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.04061351343989372</v>
+        <v>0.0001809921959647909</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.002704890444874763</v>
+        <v>0.000111073961306829</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.001077596331015229</v>
+        <v>0.000102160673122853</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.02248917706310749</v>
+        <v>2.01089051188319e-06</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.0181257463991642</v>
+        <v>0.0002904756984207779</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.06541664898395538</v>
+        <v>0.0002359157806495205</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.008078953251242638</v>
+        <v>0.000143042765557766</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.0150712076574564</v>
+        <v>0.0002023005217779428</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.0003521075705066323</v>
+        <v>1.280935612157919e-05</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.01699493639171124</v>
+        <v>0.0001257928815903142</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.01846496947109699</v>
+        <v>9.641298674978316e-05</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.02222364582121372</v>
+        <v>0.0002638536388985813</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.0164918415248394</v>
+        <v>3.116457264695782e-06</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.00362720713019371</v>
+        <v>0.0003567537933122367</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.08263804763555527</v>
+        <v>1.024649100145325e-05</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.01202878449112177</v>
+        <v>0.0002086150052491575</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.1073556616902351</v>
+        <v>9.27250730455853e-05</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.02168974652886391</v>
+        <v>8.756144234212115e-05</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.04971266910433769</v>
+        <v>7.449685654137284e-06</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.02956183440983295</v>
+        <v>3.51199705619365e-05</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.0005981759168207645</v>
+        <v>0.0003085836942773312</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.0255772415548563</v>
+        <v>0.0001325631310464814</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.03284225612878799</v>
+        <v>0.0001932467421283945</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.04013307392597198</v>
+        <v>2.301100539625622e-05</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.03543556481599808</v>
+        <v>2.485270670149475e-06</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.01334382221102715</v>
+        <v>0.00021666671091225</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.02082892507314682</v>
+        <v>0.0004234141670167446</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.001730293035507202</v>
+        <v>7.103556708898395e-05</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.01109385117888451</v>
+        <v>0.0002216167631559074</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.000213256775168702</v>
+        <v>8.117115066852421e-05</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0002771484141703695</v>
+        <v>0.006788062397390604</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0006242864765226841</v>
+        <v>0.0005202685133554041</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0004645331937354058</v>
+        <v>0.001672831480391324</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0005976908141747117</v>
+        <v>0.002247411059215665</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002794417552649975</v>
+        <v>0.001343720708973706</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0004218224203214049</v>
+        <v>6.129976827651262e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001132606063038111</v>
+        <v>0.001024784753099084</v>
       </c>
       <c r="I13" t="n">
-        <v>0.000574611418414861</v>
+        <v>0.0001426123344572261</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0003153047291561961</v>
+        <v>0.0003562650235835463</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0003282669349573553</v>
+        <v>0.005851478781551123</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005827641580253839</v>
+        <v>0.0003411334182601422</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0003089102683588862</v>
+        <v>0.0008274443680420518</v>
       </c>
       <c r="N13" t="n">
-        <v>0.000412383844377473</v>
+        <v>0.001412294339388609</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002458765637129545</v>
+        <v>0.001339037087745965</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0001390051038470119</v>
+        <v>8.717653690837324e-05</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0008140464196912944</v>
+        <v>0.0001254177186638117</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0007342585595324636</v>
+        <v>3.894808833138086e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0004772153624799103</v>
+        <v>9.907063213177025e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0002997978299390525</v>
+        <v>0.0006956873694434762</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0001193948846776038</v>
+        <v>0.000210482714464888</v>
       </c>
       <c r="V13" t="n">
-        <v>0.000347824563505128</v>
+        <v>0.0007009138353168964</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0001168429444078356</v>
+        <v>0.001254660077393055</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0005594101967290044</v>
+        <v>0.0002848459698725492</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0001840968034230173</v>
+        <v>0.000166105484822765</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0002569917705841362</v>
+        <v>0.001234636292792857</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0001848342653829604</v>
+        <v>0.0004192389314994216</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0001447387039661407</v>
+        <v>0.000176253350218758</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.393175787408836e-06</v>
+        <v>0.0002696577284950763</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.068183913361281e-05</v>
+        <v>0.0003460457955952734</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.726108530419879e-05</v>
+        <v>7.749452925054356e-05</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0008089679176919162</v>
+        <v>0.0003656554326880723</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.405602885526605e-05</v>
+        <v>0.0001504960091551766</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0003281510435044765</v>
+        <v>4.311002339818515e-05</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0002777282788883895</v>
+        <v>0.0003695377963595092</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.535145383968484e-05</v>
+        <v>0.0005672528059221804</v>
       </c>
       <c r="AK13" t="n">
-        <v>6.585144001292065e-05</v>
+        <v>0.0009708751458674669</v>
       </c>
       <c r="AL13" t="n">
-        <v>5.821875674882904e-06</v>
+        <v>0.0006354301003739238</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0003872492525260895</v>
+        <v>0.0001166855145129375</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.128563498146832e-05</v>
+        <v>0.0001522952516097575</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0002918077225331217</v>
+        <v>0.0006270452286116779</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.0002328165282960981</v>
+        <v>0.0005243479972705245</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5.114103987580165e-05</v>
+        <v>5.068192695034668e-05</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0001126639690482989</v>
+        <v>0.0002443056146148592</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0002200729213654995</v>
+        <v>0.0002049975009867921</v>
       </c>
       <c r="AT13" t="n">
-        <v>6.486435449915007e-05</v>
+        <v>6.546442455146462e-05</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.0001396776206092909</v>
+        <v>0.004267036449164152</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0003583012730814517</v>
+        <v>0.0001437949540559202</v>
       </c>
       <c r="AW13" t="n">
-        <v>8.763816731516272e-05</v>
+        <v>0.0002683326310943812</v>
       </c>
       <c r="AX13" t="n">
-        <v>6.409799243556336e-05</v>
+        <v>0.0009986970108002424</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.001429102150723338</v>
+        <v>0.000655911338981241</v>
       </c>
       <c r="AZ13" t="n">
-        <v>9.203173976857215e-05</v>
+        <v>0.0003605915699154139</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0001969206787180156</v>
+        <v>0.0001485201646573842</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0001399923057761043</v>
+        <v>0.0001109309232560918</v>
       </c>
       <c r="BC13" t="n">
-        <v>4.574599006446078e-05</v>
+        <v>0.0004173951456323266</v>
       </c>
       <c r="BD13" t="n">
-        <v>5.802213127026334e-05</v>
+        <v>0.001629539066925645</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.000243916263571009</v>
+        <v>0.001033445238135755</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0004039909108541906</v>
+        <v>0.0002355108445044607</v>
       </c>
       <c r="BG13" t="n">
-        <v>3.147479583276436e-05</v>
+        <v>0.001420099288225174</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0003794543736148626</v>
+        <v>0.0006453137029893696</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0001436322490917519</v>
+        <v>0.0003724122070707381</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.0006384502630680799</v>
+        <v>0.0002631075331009924</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0001651247002882883</v>
+        <v>0.0001999879750655964</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0001398865424562246</v>
+        <v>0.0006107053486630321</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.143220470112283e-05</v>
+        <v>0.001155867241322994</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.0001198473401018418</v>
+        <v>0.000624251551926136</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.00019262675778009</v>
+        <v>0.0001084687100956216</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.000355458352714777</v>
+        <v>0.0005750969867222011</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0001161443142336793</v>
+        <v>0.0001013930304907262</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0001330419181613252</v>
+        <v>0.0001757729332894087</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.0001732063537929207</v>
+        <v>0.0002464959397912025</v>
       </c>
       <c r="BT13" t="n">
-        <v>9.778481035027653e-05</v>
+        <v>0.0003909982042387128</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.0001045007084030658</v>
+        <v>0.0001433812431059778</v>
       </c>
       <c r="BV13" t="n">
-        <v>1.493870513513684e-06</v>
+        <v>0.002440851414576173</v>
       </c>
       <c r="BW13" t="n">
-        <v>6.171616405481473e-05</v>
+        <v>0.0005644572665914893</v>
       </c>
       <c r="BX13" t="n">
-        <v>6.82798599882517e-06</v>
+        <v>0.0002264044451294467</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0001569345768075436</v>
+        <v>0.0004995109047740698</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.000939042423851788</v>
+        <v>0.0001882829674286768</v>
       </c>
       <c r="CA13" t="n">
-        <v>4.971918679075316e-05</v>
+        <v>0.0002947131870314479</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.0002114791714120656</v>
+        <v>0.0001659547269809991</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.0003465806657914072</v>
+        <v>0.000253308069659397</v>
       </c>
       <c r="CD13" t="n">
-        <v>4.697908298112452e-05</v>
+        <v>0.0001349720550933853</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.0001050311475410126</v>
+        <v>0.00103107385803014</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.0001295549445785582</v>
+        <v>0.0002836918574757874</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0001816353760659695</v>
+        <v>0.0002452794287819415</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0001140254898928106</v>
+        <v>0.0001308146020164713</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0004859911859966815</v>
+        <v>0.0001317678834311664</v>
       </c>
       <c r="CJ13" t="n">
-        <v>7.139101217035204e-05</v>
+        <v>0.0003341020783409476</v>
       </c>
       <c r="CK13" t="n">
-        <v>8.891955076251179e-05</v>
+        <v>0.0001960750669240952</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0001077532724593766</v>
+        <v>9.002475417219102e-05</v>
       </c>
       <c r="CM13" t="n">
-        <v>4.816672662855126e-05</v>
+        <v>0.00148152292240411</v>
       </c>
       <c r="CN13" t="n">
-        <v>6.952650437597185e-05</v>
+        <v>0.0005389873986132443</v>
       </c>
       <c r="CO13" t="n">
-        <v>9.962173498934135e-05</v>
+        <v>0.0001981304958462715</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.0001931050937855616</v>
+        <v>0.0005463762208819389</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.0004828193341381848</v>
+        <v>0.000784562318585813</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.0003760259423870593</v>
+        <v>0.0007044312660582364</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.0002387162821833044</v>
+        <v>0.001118994667194784</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0001198828031192534</v>
+        <v>0.0007002639467827976</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.0001163300330517814</v>
+        <v>0.0003045173361897469</v>
       </c>
       <c r="CV13" t="n">
-        <v>9.234143362846226e-05</v>
+        <v>0.0001028082624543458</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.0001461914944229648</v>
+        <v>0.0009183087386190891</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.0001349105004919693</v>
+        <v>0.0003545683284755796</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0001217097087646835</v>
+        <v>0.0004865524533670396</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0001260662393178791</v>
+        <v>0.0002183283068006858</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.0004789353697560728</v>
+        <v>0.000179987633600831</v>
       </c>
       <c r="DB13" t="n">
-        <v>2.234917883470189e-05</v>
+        <v>0.0002412924804957584</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.0002112204092554748</v>
+        <v>0.0003479516017250717</v>
       </c>
       <c r="DD13" t="n">
-        <v>9.231449803337455e-05</v>
+        <v>7.603409358125646e-06</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.0002979417622555047</v>
+        <v>0.0005238026496954262</v>
       </c>
       <c r="DF13" t="n">
-        <v>1.095939410333813e-07</v>
+        <v>0.0006508718943223357</v>
       </c>
       <c r="DG13" t="n">
-        <v>8.171932131517678e-05</v>
+        <v>5.246531509328634e-05</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.0002289809635840356</v>
+        <v>0.001977031817659736</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0002366768021602184</v>
+        <v>0.001065439661033452</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0004583951085805893</v>
+        <v>0.0002703523787204176</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.0004487063270062208</v>
+        <v>0.0005639686132781208</v>
       </c>
       <c r="DL13" t="n">
-        <v>5.470558244269341e-05</v>
+        <v>0.0002065541048068553</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0004671511705964804</v>
+        <v>0.0003551821573637426</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.0002583772293291986</v>
+        <v>0.0003250412410125136</v>
       </c>
       <c r="DO13" t="n">
-        <v>1.44823279697448e-05</v>
+        <v>0.0003017034323420376</v>
       </c>
       <c r="DP13" t="n">
-        <v>6.557849701493979e-05</v>
+        <v>0.0005711772246286273</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0002560655120760202</v>
+        <v>0.0004107607528567314</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.0002174276305595413</v>
+        <v>0.0004267902404535562</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.00023298965243157</v>
+        <v>0.0002152969245798886</v>
       </c>
       <c r="DT13" t="n">
-        <v>1.068813435267657e-05</v>
+        <v>0.0002094184892484918</v>
       </c>
       <c r="DU13" t="n">
-        <v>1.500904909335077e-05</v>
+        <v>0.0001920658542076126</v>
       </c>
       <c r="DV13" t="n">
-        <v>3.299789386801422e-05</v>
+        <v>5.475203943205997e-05</v>
       </c>
       <c r="DW13" t="n">
-        <v>2.525599484215491e-06</v>
+        <v>0.0001644006406422704</v>
       </c>
       <c r="DX13" t="n">
-        <v>4.868708856520243e-06</v>
+        <v>0.0004748940991703421</v>
       </c>
       <c r="DY13" t="n">
-        <v>8.138403063639998e-05</v>
+        <v>6.825233867857605e-05</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.0001326919009443372</v>
+        <v>8.970191993284971e-05</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0001664261362748221</v>
+        <v>0.0005935552180744708</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.000102214929938782</v>
+        <v>0.0001790811365935951</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0001774064876371995</v>
+        <v>9.13669791771099e-05</v>
       </c>
       <c r="ED13" t="n">
-        <v>9.45097126532346e-05</v>
+        <v>0.0001195172662846744</v>
       </c>
       <c r="EE13" t="n">
-        <v>6.964411295484751e-05</v>
+        <v>4.042358341393992e-06</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.0001438810868421569</v>
+        <v>0.0005967990728095174</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0001859394978964701</v>
+        <v>0.001253570197150111</v>
       </c>
       <c r="EH13" t="n">
-        <v>8.878622611518949e-05</v>
+        <v>0.0001913908490678295</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0001386756339343265</v>
+        <v>8.722973143449053e-05</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0005292394780553877</v>
+        <v>0.0002418204967398196</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.0004939765785820782</v>
+        <v>5.809215872432105e-05</v>
       </c>
       <c r="EL13" t="n">
-        <v>1.857714414654765e-05</v>
+        <v>0.0001609788741916418</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.0002063437132164836</v>
+        <v>0.0002199082373408601</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.0001443722430849448</v>
+        <v>3.959932291763835e-05</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.0001439791230950505</v>
+        <v>0.0002168589999200776</v>
       </c>
       <c r="EP13" t="n">
-        <v>6.740337994415313e-05</v>
+        <v>7.405025826301426e-05</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0002106070460285991</v>
+        <v>0.0004423432983458042</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.0002379797806497663</v>
+        <v>0.0002302950160810724</v>
       </c>
       <c r="ES13" t="n">
-        <v>8.833030005916953e-05</v>
+        <v>7.121325324987993e-05</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.0001163517663371749</v>
+        <v>0.0004635045188479125</v>
       </c>
       <c r="EU13" t="n">
-        <v>2.560768552939408e-05</v>
+        <v>0.0003447415074333549</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0001424918737029657</v>
+        <v>0.0009067165665328503</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.0001627011224627495</v>
+        <v>0.0005168516072444618</v>
       </c>
       <c r="EX13" t="n">
-        <v>8.69272043928504e-05</v>
+        <v>0.00020006881095469</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.0001332987012574449</v>
+        <v>0.0008944897563196719</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.0001400543696945533</v>
+        <v>0.0002752671716734767</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0001698898850008845</v>
+        <v>0.0002048621536232531</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.000140848831506446</v>
+        <v>2.56908515439136e-05</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.0004837576998397708</v>
+        <v>0.0002220598398707807</v>
       </c>
       <c r="FD13" t="n">
-        <v>1.207165860250825e-05</v>
+        <v>0.0003616097965277731</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0002085483283735812</v>
+        <v>0.0001761477033142</v>
       </c>
       <c r="FF13" t="n">
-        <v>6.514444976346567e-05</v>
+        <v>0.0001342935720458627</v>
       </c>
       <c r="FG13" t="n">
-        <v>3.888802166329697e-05</v>
+        <v>0.0002327393740415573</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.0002136744878953323</v>
+        <v>7.617331721121445e-05</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.0001990726887015626</v>
+        <v>0.0003430568613111973</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.0002530671190470457</v>
+        <v>0.0009686864214017987</v>
       </c>
       <c r="FK13" t="n">
-        <v>7.282493606908247e-05</v>
+        <v>0.0005795203032903373</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.0001990744494833052</v>
+        <v>0.0004534214967861772</v>
       </c>
       <c r="FM13" t="n">
-        <v>6.565203511854634e-05</v>
+        <v>3.987083618994802e-05</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0002245364739792421</v>
+        <v>0.0001442464417777956</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0002726293751038611</v>
+        <v>0.0006410012720152736</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.000132381625007838</v>
+        <v>0.0009353606146760285</v>
       </c>
       <c r="FQ13" t="n">
-        <v>5.009903543395922e-05</v>
+        <v>0.0009214926394633949</v>
       </c>
       <c r="FR13" t="n">
-        <v>8.221659663831815e-05</v>
+        <v>0.0008270975667983294</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.0006629436975345016</v>
+        <v>0.0002423790865577757</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.0002540102286729962</v>
+        <v>0.0001743342872941867</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.001037839916534722</v>
+        <v>0.0003871133667416871</v>
       </c>
       <c r="FV13" t="n">
-        <v>5.318757030181587e-05</v>
+        <v>0.0001478217454859987</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.0002195671695517376</v>
+        <v>0.0001632447965675965</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.000303908163914457</v>
+        <v>3.599657429731451e-05</v>
       </c>
       <c r="FY13" t="n">
-        <v>4.625011933967471e-05</v>
+        <v>0.0008112962241284549</v>
       </c>
       <c r="FZ13" t="n">
-        <v>3.845835453830659e-05</v>
+        <v>0.0002262651978526264</v>
       </c>
       <c r="GA13" t="n">
-        <v>9.603802027413622e-06</v>
+        <v>0.0001037994152284227</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.0001898702175822109</v>
+        <v>7.840098987799138e-05</v>
       </c>
       <c r="GC13" t="n">
-        <v>3.233055031159893e-05</v>
+        <v>0.0004117109056096524</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.0002030286414083093</v>
+        <v>0.0007938856142573059</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.0002416911156615242</v>
+        <v>0.001036171684972942</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0001709113421384245</v>
+        <v>0.0004344294720795006</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.0002529430494178087</v>
+        <v>0.0003023425815626979</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.004002857021987438</v>
+        <v>2.058714380837046e-05</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0119387386366725</v>
+        <v>0.0009866023901849985</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002241493668407202</v>
+        <v>4.456725582713261e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0.005082519259303808</v>
+        <v>0.0006171261193230748</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003556557465344667</v>
+        <v>0.0001197730598505586</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01750706136226654</v>
+        <v>8.669677481520921e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.002264764159917831</v>
+        <v>0.0001150008174590766</v>
       </c>
       <c r="H14" t="n">
-        <v>0.004710743669420481</v>
+        <v>4.820261892746203e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.004424523562192917</v>
+        <v>5.167737981537357e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002719719894230366</v>
+        <v>7.600997196277604e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0103719886392355</v>
+        <v>0.0008762187790125608</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001123309950344265</v>
+        <v>2.135581235052086e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00315120117738843</v>
+        <v>0.0005674986750818789</v>
       </c>
       <c r="N14" t="n">
-        <v>0.001979547087103128</v>
+        <v>0.0001662725262576714</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01517032738775015</v>
+        <v>1.592583976162132e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>0.00103647168725729</v>
+        <v>7.592232577735558e-05</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.001096895663067698</v>
+        <v>0.0001201984123326838</v>
       </c>
       <c r="R14" t="n">
-        <v>0.005653867498040199</v>
+        <v>1.36018843477359e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>0.00233234791085124</v>
+        <v>6.824116280768067e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0006214972818270326</v>
+        <v>0.0001161544423666783</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0002867433067876846</v>
+        <v>6.736408977303654e-06</v>
       </c>
       <c r="V14" t="n">
-        <v>0.003887960454449058</v>
+        <v>6.401594146154821e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>0.004462929908186197</v>
+        <v>6.387772009475157e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>0.002365089487284422</v>
+        <v>2.223954652436078e-05</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.000971513451077044</v>
+        <v>9.17009892873466e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.003845393424853683</v>
+        <v>7.681331044295803e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0008052864577621222</v>
+        <v>8.83682441781275e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.002998426556587219</v>
+        <v>8.936501399148256e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0018765430431813</v>
+        <v>0.0001953913451870903</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0007004886865615845</v>
+        <v>1.184344182547648e-05</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.001730722957290709</v>
+        <v>1.813059498090297e-05</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.003648462472483516</v>
+        <v>2.088466317218263e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0004135432245675474</v>
+        <v>2.574593418103177e-05</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.001263855025172234</v>
+        <v>6.345196015900001e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.001302328892052174</v>
+        <v>1.535775663796812e-05</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.001035930239595473</v>
+        <v>3.597034083213657e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.000357914948835969</v>
+        <v>2.541487447160762e-05</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.001051417784765363</v>
+        <v>9.909516666084528e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.00126204255502671</v>
+        <v>1.228367455041735e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.000336356635671109</v>
+        <v>2.78607003565412e-05</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0002241956390207633</v>
+        <v>8.777678158367053e-05</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.003069216618314385</v>
+        <v>6.297202344285324e-05</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.0004511857114266604</v>
+        <v>7.489058771170676e-05</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.001320829149335623</v>
+        <v>2.443620360281784e-05</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.0008309644181281328</v>
+        <v>2.496191336831544e-05</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.002533226972445846</v>
+        <v>0.0001037472247844562</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.005272274371236563</v>
+        <v>0.0006030232179909945</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.001000894117169082</v>
+        <v>0.0001331372477579862</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.0007620760588906705</v>
+        <v>0.000193000043509528</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.0004629218019545078</v>
+        <v>3.091126563958824e-05</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.009493673220276833</v>
+        <v>6.489126826636493e-05</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.0006572037236765027</v>
+        <v>2.632712130434811e-05</v>
       </c>
       <c r="BA14" t="n">
-        <v>5.743710789829493e-05</v>
+        <v>4.344619446783327e-05</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.001233636401593685</v>
+        <v>2.670444882824086e-05</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.001500321784988046</v>
+        <v>4.848256139666773e-05</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.002651275601238012</v>
+        <v>0.0001437909522792324</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.0003844479215331376</v>
+        <v>0.0001712354278424755</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.004737306386232376</v>
+        <v>0.0001049090351443738</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.00213311705738306</v>
+        <v>0.000108077801996842</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.003288506995886564</v>
+        <v>2.874144047382288e-05</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.0002960085403174162</v>
+        <v>6.239317735889927e-05</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.005225284490734339</v>
+        <v>0.0001232745125889778</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.0002984727616421878</v>
+        <v>2.83333192783175e-05</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.001576760900206864</v>
+        <v>8.444831473752856e-05</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.0008461266988888383</v>
+        <v>4.08679261454381e-05</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.0003457089187577367</v>
+        <v>6.92580288159661e-05</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.00269414926879108</v>
+        <v>3.666246266220696e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.001365732168778777</v>
+        <v>0.0001548287982586771</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.0009791622869670391</v>
+        <v>1.841438461269718e-05</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.001507859444245696</v>
+        <v>3.56006421498023e-05</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.001808361033909023</v>
+        <v>4.315821206546389e-05</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.001041157054714859</v>
+        <v>7.249508053064346e-05</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.001501148333773017</v>
+        <v>7.311454100999981e-05</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.002897563623264432</v>
+        <v>0.0003154189616907388</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.0006335947546176612</v>
+        <v>7.389087841147557e-05</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.0004089822759851813</v>
+        <v>0.000134873014758341</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.000456914771348238</v>
+        <v>6.045097688911483e-05</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.005456092767417431</v>
+        <v>1.657731445448007e-05</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.000390575616620481</v>
+        <v>4.772068132297136e-05</v>
       </c>
       <c r="CB14" t="n">
-        <v>4.935308243148029e-05</v>
+        <v>1.169232291431399e-05</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.003211251925677061</v>
+        <v>6.575268344022334e-05</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.001014515059068799</v>
+        <v>1.539772893011104e-05</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.001980576897040009</v>
+        <v>0.000168110229424201</v>
       </c>
       <c r="CF14" t="n">
-        <v>9.529480303172022e-05</v>
+        <v>3.902295793523081e-05</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.001257261028513312</v>
+        <v>7.015892333583906e-05</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.0004766278434544802</v>
+        <v>3.558414755389094e-05</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.002434452995657921</v>
+        <v>1.914233325805981e-05</v>
       </c>
       <c r="CJ14" t="n">
-        <v>2.164131728932261e-06</v>
+        <v>2.411348577879835e-05</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.0002855574712157249</v>
+        <v>4.792635081685148e-06</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.0007198057137429714</v>
+        <v>2.35413208429236e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.0006595108425244689</v>
+        <v>0.0002234408457297832</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.0002380204095970839</v>
+        <v>4.454784721019678e-05</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.0004555436025839299</v>
+        <v>1.845657243393362e-05</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.00109545886516571</v>
+        <v>0.0001562289835419506</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.00401452649384737</v>
+        <v>0.0001793158007785678</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.002705767285078764</v>
+        <v>0.0001103037866414525</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.0005048472085036337</v>
+        <v>0.0001238895347341895</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.001607681391760707</v>
+        <v>0.000167143385624513</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.001216538366861641</v>
+        <v>3.422963345656171e-06</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.001109251985326409</v>
+        <v>4.462381639314117e-06</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.002356601180508733</v>
+        <v>0.0001692528312560171</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.0001898341433843598</v>
+        <v>6.75083720125258e-05</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.0002695968723855913</v>
+        <v>0.000101805584563408</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.0002506306627765298</v>
+        <v>3.780703627853654e-05</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.002846512710675597</v>
+        <v>4.079496193298837e-06</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.0003517633595038205</v>
+        <v>3.043870128749404e-05</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.00106931256595999</v>
+        <v>1.806661202863324e-05</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.0009436821565032005</v>
+        <v>8.83587563293986e-06</v>
       </c>
       <c r="DE14" t="n">
-        <v>4.721322329714894e-05</v>
+        <v>0.00012885921751149</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.002249981975182891</v>
+        <v>9.389823389938101e-05</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.001618515234440565</v>
+        <v>1.988440999411978e-06</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.0003419640124775469</v>
+        <v>0.0002003082481678575</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.002076116157695651</v>
+        <v>5.551990034291521e-05</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.001624344382435083</v>
+        <v>2.365374166402034e-05</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.003211033996194601</v>
+        <v>4.640472616301849e-05</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.00129051529802382</v>
+        <v>5.886787039344199e-05</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.002016801619902253</v>
+        <v>2.441963442834094e-05</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.002694974420592189</v>
+        <v>2.342845982639119e-05</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.0009324770071543753</v>
+        <v>6.973365088924766e-05</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.0002873208723030984</v>
+        <v>5.043987039243802e-05</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.00114740151911974</v>
+        <v>5.389799116528593e-05</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.0009553329437039793</v>
+        <v>0.0001247401523869485</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.0006114532588981092</v>
+        <v>9.549231435812544e-06</v>
       </c>
       <c r="DT14" t="n">
-        <v>1.948977296706289e-05</v>
+        <v>1.45676867759903e-05</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.001171905547380447</v>
+        <v>4.600985266733915e-05</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.00210719439201057</v>
+        <v>4.964384788763709e-05</v>
       </c>
       <c r="DW14" t="n">
-        <v>3.417528932914138e-05</v>
+        <v>6.240425136638805e-05</v>
       </c>
       <c r="DX14" t="n">
-        <v>7.177873339969665e-05</v>
+        <v>0.000141421114676632</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.000150707273860462</v>
+        <v>1.8121683751815e-05</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.001336304470896721</v>
+        <v>6.485759513452649e-05</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.001424271031282842</v>
+        <v>5.987809345242567e-05</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.0003921725146938115</v>
+        <v>1.759539190970827e-05</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.0001745144254527986</v>
+        <v>4.277492189430632e-05</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.001204110216349363</v>
+        <v>9.075358320842497e-06</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.001588178449310362</v>
+        <v>1.131295357481577e-05</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.0005218526930548251</v>
+        <v>2.324714478163514e-05</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.001833312679082155</v>
+        <v>0.0001219745608977973</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.001976316561922431</v>
+        <v>8.0105361121241e-05</v>
       </c>
       <c r="EI14" t="n">
-        <v>8.014170452952385e-05</v>
+        <v>0.0001091891099349596</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.003375308588147163</v>
+        <v>0.0001343280600849539</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.002603336237370968</v>
+        <v>4.434493348526303e-06</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.0005398794892244041</v>
+        <v>2.397709431534167e-05</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.0009163481881842017</v>
+        <v>3.24309803545475e-05</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.001438154140487313</v>
+        <v>1.993652040255256e-05</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.0005964018637314439</v>
+        <v>1.328662619926035e-07</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.0005943517899140716</v>
+        <v>0.0001928494602907449</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.001034736051224172</v>
+        <v>9.268540452467278e-05</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.0001504094107076526</v>
+        <v>6.527938967337832e-05</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.0009018750861287117</v>
+        <v>3.212432056898251e-05</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.0001972233003471047</v>
+        <v>2.09929912671214e-05</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.001500795828178525</v>
+        <v>7.547536370111629e-05</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.0009220956126227975</v>
+        <v>4.480478310142644e-05</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.0004269263008609414</v>
+        <v>3.683211252791807e-05</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.001252533053047955</v>
+        <v>3.301293327240273e-05</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.002181746065616608</v>
+        <v>0.0001771846582414582</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.0006989140529185534</v>
+        <v>4.620844993041828e-05</v>
       </c>
       <c r="FA14" t="n">
-        <v>6.150382978376001e-05</v>
+        <v>8.301632624352351e-05</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.0005726203671656549</v>
+        <v>2.41766592807835e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.0028239821549505</v>
+        <v>7.571634341729805e-07</v>
       </c>
       <c r="FD14" t="n">
-        <v>5.934743967372924e-05</v>
+        <v>2.499610855011269e-05</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.0007576307980343699</v>
+        <v>2.552679688960779e-06</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.0008837691857479513</v>
+        <v>1.963186514331028e-05</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.002020985819399357</v>
+        <v>2.297506580362096e-05</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.003881284035742283</v>
+        <v>8.760490891290829e-05</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.002603478264063597</v>
+        <v>8.097208046820015e-05</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.000767504854593426</v>
+        <v>6.634354213019833e-05</v>
       </c>
       <c r="FK14" t="n">
-        <v>7.169274613261223e-05</v>
+        <v>6.755127833457664e-05</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.002803483279421926</v>
+        <v>3.343030039104633e-05</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.0006542019546031952</v>
+        <v>2.439192030578852e-05</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.0001906685065478086</v>
+        <v>2.715006485232152e-05</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.0005385020049288869</v>
+        <v>2.335617500648368e-05</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.0006968217203393579</v>
+        <v>0.0001043900119839236</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.001616738038137555</v>
+        <v>4.411645568325184e-05</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.0006256082560867071</v>
+        <v>0.0001440420746803284</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.009479805827140808</v>
+        <v>5.019141099182889e-06</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.003972028382122517</v>
+        <v>7.356984497164376e-06</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.006034985184669495</v>
+        <v>9.261511149816215e-05</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.0001511986047262326</v>
+        <v>2.017623592109885e-05</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.002528834622353315</v>
+        <v>3.709663724293932e-05</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.0009771622717380524</v>
+        <v>4.451838321983814e-05</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.002163972705602646</v>
+        <v>9.112866246141493e-05</v>
       </c>
       <c r="FZ14" t="n">
-        <v>3.448700590524822e-05</v>
+        <v>1.549049193272367e-05</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.0004305098264012486</v>
+        <v>5.062611671746708e-05</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.001242266735062003</v>
+        <v>2.993959788000211e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.002017908496782184</v>
+        <v>1.314523069595452e-05</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.001142763998359442</v>
+        <v>0.0001151762844529003</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.002611634088680148</v>
+        <v>0.0001972179743461311</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.002982454374432564</v>
+        <v>3.116689913440496e-05</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.001054165884852409</v>
+        <v>7.787378126522526e-05</v>
       </c>
     </row>
     <row r="15">
@@ -8970,571 +8970,571 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.02391031384468079</v>
+        <v>8.153043745551258e-05</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01736492849886417</v>
+        <v>0.003475620644167066</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03410817310214043</v>
+        <v>7.31020190869458e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02492481656372547</v>
+        <v>0.00107965525239706</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003794481977820396</v>
+        <v>0.000738389091566205</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1305144280195236</v>
+        <v>0.001429045805707574</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04116804152727127</v>
+        <v>0.0004112602618988603</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1104676797986031</v>
+        <v>0.001133183599449694</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05429944396018982</v>
+        <v>0.0006260884110815823</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01670656725764275</v>
+        <v>0.0005953273503109813</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01462800242006779</v>
+        <v>0.003055971348658204</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0431223027408123</v>
+        <v>0.0002456163638271391</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0304019320756197</v>
+        <v>0.0004427119856700301</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01884361170232296</v>
+        <v>0.0001459080813219771</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1120991110801697</v>
+        <v>0.00178953749127686</v>
       </c>
       <c r="P16" t="n">
-        <v>0.04194336757063866</v>
+        <v>0.0005202017491683364</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.09749002754688263</v>
+        <v>4.459411138668656e-05</v>
       </c>
       <c r="R16" t="n">
-        <v>0.06451249867677689</v>
+        <v>0.0007471776916645467</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0006582359783351421</v>
+        <v>0.0001608217426110059</v>
       </c>
       <c r="T16" t="n">
-        <v>0.00496076513081789</v>
+        <v>0.0002526182506699115</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003167974296957254</v>
+        <v>0.0003081365721300244</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0001308924984186888</v>
+        <v>0.0003347779274918139</v>
       </c>
       <c r="W16" t="n">
-        <v>0.01067856792360544</v>
+        <v>0.0004795514978468418</v>
       </c>
       <c r="X16" t="n">
-        <v>0.01988054439425468</v>
+        <v>0.0003482208703644574</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.006299105007201433</v>
+        <v>0.0002416503848508</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.003588267602026463</v>
+        <v>0.0006584924994967878</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01408772356808186</v>
+        <v>0.0004698206030298024</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.01301253493875265</v>
+        <v>0.0001624104043003172</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.02065358683466911</v>
+        <v>0.0001873312867246568</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.005780156701803207</v>
+        <v>0.0002977538388222456</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.004435988143086433</v>
+        <v>0.0001127685463870876</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.03383829072117805</v>
+        <v>0.0003115542931482196</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.001013766042888165</v>
+        <v>9.341518307337537e-05</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.0368485189974308</v>
+        <v>5.506776506081223e-05</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.02075358107686043</v>
+        <v>0.0004439088224899024</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.007492978125810623</v>
+        <v>0.0001001452546915971</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.005432683974504471</v>
+        <v>0.0004641771083697677</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.009165202267467976</v>
+        <v>0.0005355927860364318</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.01441687345504761</v>
+        <v>5.922118361922912e-05</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.003732334822416306</v>
+        <v>0.000147799146361649</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.01623038947582245</v>
+        <v>4.252813596394844e-05</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.02395018935203552</v>
+        <v>0.0004354912089183927</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.0003949922975152731</v>
+        <v>0.0002263356582261622</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.0009386067977175117</v>
+        <v>0.0002774936147034168</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.001916458830237389</v>
+        <v>0.0004297738487366587</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.002607491798698902</v>
+        <v>7.829202513676137e-05</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.004416895098984241</v>
+        <v>0.002264845184981823</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.02405229955911636</v>
+        <v>0.0005460645188577473</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.004205081146210432</v>
+        <v>0.0003504250198602676</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.02010542154312134</v>
+        <v>0.0003412513178773224</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.07697319984436035</v>
+        <v>0.0008532890351489186</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.002682674210518599</v>
+        <v>0.0007423705537803471</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.04739424586296082</v>
+        <v>0.0006455878610722721</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.01887923292815685</v>
+        <v>0.0006363975116983056</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.003795981407165527</v>
+        <v>4.939211066812277e-05</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.01421160344034433</v>
+        <v>0.0007691241335123777</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.01210342161357403</v>
+        <v>0.0008923534769564867</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.01871107518672943</v>
+        <v>0.0002737119793891907</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.003755338024348021</v>
+        <v>0.000174642467754893</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.01320507191121578</v>
+        <v>0.0005163059686310589</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.02855058759450912</v>
+        <v>0.0002167216007364914</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.03571313247084618</v>
+        <v>0.0005327627877704799</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.01021723728626966</v>
+        <v>0.00041542062535882</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.005819148384034634</v>
+        <v>0.0001827408996177837</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.003638119902461767</v>
+        <v>0.0002605878980830312</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.01937940903007984</v>
+        <v>0.000363129423931241</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.004275126848369837</v>
+        <v>8.713174611330032e-05</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.01858256943523884</v>
+        <v>2.94028504868038e-05</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.006297196261584759</v>
+        <v>0.0002180162555305287</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.01572531647980213</v>
+        <v>0.0004294584505259991</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.009368499740958214</v>
+        <v>0.000111398876470048</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.003567146370187402</v>
+        <v>0.0001659451518207788</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.01935425773262978</v>
+        <v>1.972864993149415e-05</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.0005142117734067142</v>
+        <v>0.001246946048922837</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.007717383559793234</v>
+        <v>0.0003675366169773042</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.007541042752563953</v>
+        <v>3.134974394924939e-05</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.02243918180465698</v>
+        <v>0.0002764226519502699</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.02797465026378632</v>
+        <v>0.0004191215266473591</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.01154702715575695</v>
+        <v>1.239986886503175e-05</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.03696972876787186</v>
+        <v>0.0001257985277334228</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.01691574789583683</v>
+        <v>0.0004661374841816723</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.002674209186807275</v>
+        <v>5.100181442685425e-05</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.02210765145719051</v>
+        <v>0.0006262257229536772</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.01078497711569071</v>
+        <v>0.0003285881830379367</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.006484824698418379</v>
+        <v>0.0002151223015971482</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.003084151539951563</v>
+        <v>0.0001194702563225292</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.02453692071139812</v>
+        <v>7.398489833576605e-05</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.005277273710817099</v>
+        <v>0.0002292517892783508</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.01656455919146538</v>
+        <v>0.0001326678320765495</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.008816353045403957</v>
+        <v>0.0003583545912988484</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.01026006415486336</v>
+        <v>0.0004817015142180026</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.01594904810190201</v>
+        <v>0.0004817630688194185</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.009346884675323963</v>
+        <v>0.0001473407173762098</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.0006869514472782612</v>
+        <v>0.0008592132362537086</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.04552901536226273</v>
+        <v>0.0005278708413243294</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.01668354123830795</v>
+        <v>0.0004090686561539769</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.0157003365457058</v>
+        <v>0.0006902486202307045</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.006853646598756313</v>
+        <v>0.000524751259945333</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.02008295990526676</v>
+        <v>7.990214362507686e-05</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.003376760054379702</v>
+        <v>5.52021010662429e-05</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.02513928897678852</v>
+        <v>0.0005291368579491973</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.01267519872635603</v>
+        <v>0.0003355216176714748</v>
       </c>
       <c r="CY16" t="n">
-        <v>0.003803608007729053</v>
+        <v>0.000413659552577883</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.004218951798975468</v>
+        <v>0.0001768590009305626</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.02498861216008663</v>
+        <v>6.107371882535517e-05</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.000310798641294241</v>
+        <v>0.0002497613895684481</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.02208901941776276</v>
+        <v>0.0002604143228381872</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.01026058010756969</v>
+        <v>0.0003059135051444173</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.01799558103084564</v>
+        <v>0.000394676229916513</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.006912249606102705</v>
+        <v>0.0002832130994647741</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.01166875101625919</v>
+        <v>4.315715341363102e-05</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.006130881141871214</v>
+        <v>0.001631285645999014</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.02043820358812809</v>
+        <v>0.0008669724920764565</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.01171838957816362</v>
+        <v>0.001159523730166256</v>
       </c>
       <c r="DK16" t="n">
-        <v>0.01092539448291063</v>
+        <v>0.0005223337793722749</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.01128804683685303</v>
+        <v>0.0005551115609705448</v>
       </c>
       <c r="DM16" t="n">
-        <v>0.02372939512133598</v>
+        <v>0.0006020250730216503</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.01109779626131058</v>
+        <v>0.0001854960719356313</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.0159803107380867</v>
+        <v>4.766117854160257e-06</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.003675913205370307</v>
+        <v>0.0003492338582873344</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.01772982627153397</v>
+        <v>0.0001101482921512797</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.002291347365826368</v>
+        <v>1.902408257592469e-06</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.01598322205245495</v>
+        <v>0.0001391483674524352</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.006501655094325542</v>
+        <v>0.0002764716336969286</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.00197130162268877</v>
+        <v>0.0002138233830919489</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.00575923128053546</v>
+        <v>0.0002526120224501938</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.01193207688629627</v>
+        <v>0.0001583572739036754</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.007739386521279812</v>
+        <v>0.0002104490267811343</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.003734230296686292</v>
+        <v>0.0004864131333306432</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.007179575506597757</v>
+        <v>0.0002223165647592396</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.0007635271176695824</v>
+        <v>6.416747783077881e-05</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.003559496253728867</v>
+        <v>0.0002265140356030315</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.01337282545864582</v>
+        <v>1.508599962107837e-05</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.01360978838056326</v>
+        <v>0.0001283274468732998</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.003336056135594845</v>
+        <v>0.0005487574962899089</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.01116131525486708</v>
+        <v>0.0002120643621310592</v>
       </c>
       <c r="EG16" t="n">
-        <v>0.01913736574351788</v>
+        <v>0.0009133368730545044</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.005947836209088564</v>
+        <v>3.543821367202327e-05</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.004922065883874893</v>
+        <v>6.784965808037668e-05</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.01815639063715935</v>
+        <v>0.0004480790230445564</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.006884947419166565</v>
+        <v>0.0001711763616185635</v>
       </c>
       <c r="EL16" t="n">
-        <v>0.0002393158210907131</v>
+        <v>0.0003094092535320669</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.02585764043033123</v>
+        <v>3.674428444355726e-05</v>
       </c>
       <c r="EN16" t="n">
-        <v>0.01502279005944729</v>
+        <v>0.0001651004422456026</v>
       </c>
       <c r="EO16" t="n">
-        <v>0.005877097137272358</v>
+        <v>3.656238550320268e-05</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.008775725960731506</v>
+        <v>0.0002551807265263051</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.01414552051573992</v>
+        <v>0.0007744453032501042</v>
       </c>
       <c r="ER16" t="n">
-        <v>0.01146121323108673</v>
+        <v>0.0007438409957103431</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.01756118424236774</v>
+        <v>0.0004645500448532403</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.01725663617253304</v>
+        <v>0.0002704156213440001</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.01557827740907669</v>
+        <v>0.0006362966960296035</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.001119066029787064</v>
+        <v>0.0006512175896205008</v>
       </c>
       <c r="EW16" t="n">
-        <v>0.006071546580642462</v>
+        <v>8.113745570881292e-05</v>
       </c>
       <c r="EX16" t="n">
-        <v>0.005923180375248194</v>
+        <v>1.838523894548416e-05</v>
       </c>
       <c r="EY16" t="n">
-        <v>0.02193379588425159</v>
+        <v>0.000535500468686223</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.01400125212967396</v>
+        <v>0.0002838920918293297</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.004643945023417473</v>
+        <v>0.0001464377128286287</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.00144187081605196</v>
+        <v>0.0002086299355141819</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.024446040391922</v>
+        <v>8.628469367977232e-05</v>
       </c>
       <c r="FD16" t="n">
-        <v>0.002355815144255757</v>
+        <v>0.0004377941659186035</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.02232589386403561</v>
+        <v>0.0002604076871648431</v>
       </c>
       <c r="FF16" t="n">
-        <v>0.005840767174959183</v>
+        <v>0.0004246577445883304</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.007585864048451185</v>
+        <v>0.0001662899885559455</v>
       </c>
       <c r="FH16" t="n">
-        <v>0.01656011864542961</v>
+        <v>3.516658762237057e-05</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.007176714949309826</v>
+        <v>0.0007499672938138247</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0.003119503613561392</v>
+        <v>0.0003010205982718617</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.003263221587985754</v>
+        <v>0.0001266548642888665</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.02893528714776039</v>
+        <v>0.0001752383832354099</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.003382033901289105</v>
+        <v>0.0002981629513669759</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.01673286035656929</v>
+        <v>0.0002524431911297143</v>
       </c>
       <c r="FO16" t="n">
-        <v>0.001136051490902901</v>
+        <v>0.000246103445533663</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.01012699026614428</v>
+        <v>0.000244879862293601</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.01289212796837091</v>
+        <v>0.0003069716040045023</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.004104061052203178</v>
+        <v>0.0007004642975516617</v>
       </c>
       <c r="FS16" t="n">
-        <v>0.02869679220020771</v>
+        <v>0.0005671463441103697</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.02486378699541092</v>
+        <v>0.0007643052958883345</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.05514129996299744</v>
+        <v>0.0003262875834479928</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.006040723063051701</v>
+        <v>0.0005349087296053767</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.03735079616308212</v>
+        <v>9.82500787358731e-05</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.007327110506594181</v>
+        <v>0.0001760334416758269</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.003421670757234097</v>
+        <v>0.0007830619579181075</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.00906641036272049</v>
+        <v>0.0002250848920084536</v>
       </c>
       <c r="GA16" t="n">
-        <v>0.002250535413622856</v>
+        <v>0.0002258459862787277</v>
       </c>
       <c r="GB16" t="n">
-        <v>0.006054030731320381</v>
+        <v>0.0001955795451067388</v>
       </c>
       <c r="GC16" t="n">
-        <v>0.01889265514910221</v>
+        <v>0.000274924241239205</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.01912137679755688</v>
+        <v>0.0004641708510462195</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.01501505263149738</v>
+        <v>0.001046423800289631</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.0003746319562196732</v>
+        <v>0.0001224839506903663</v>
       </c>
       <c r="GG16" t="n">
-        <v>0.01492738071829081</v>
+        <v>0.0001465395180275664</v>
       </c>
     </row>
     <row r="17">
